--- a/DocEsterna/PianoDiQualifica/Images/Metriche processi.xlsx
+++ b/DocEsterna/PianoDiQualifica/Images/Metriche processi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zenma\Desktop\Desktop Marco\UNIPD\Ingegneria del Software\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84B1F57-DFA3-4CB9-BD16-256E9AAD9055}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CEDA47-68FA-4338-92D3-AE3CDC8B7740}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Metriche processi</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Budget Variance</t>
   </si>
   <si>
-    <t>Budget at Completion</t>
-  </si>
-  <si>
     <t>Earned Value</t>
   </si>
   <si>
@@ -100,13 +97,124 @@
   </si>
   <si>
     <t>Incremento 0</t>
+  </si>
+  <si>
+    <t>Valore ottimale</t>
+  </si>
+  <si>
+    <t>0% 5%</t>
+  </si>
+  <si>
+    <t>Calcolo</t>
+  </si>
+  <si>
+    <t>EV-PV</t>
+  </si>
+  <si>
+    <t>EV-AC</t>
+  </si>
+  <si>
+    <t>AC(Soldi spesi fino al momento del calcolo)</t>
+  </si>
+  <si>
+    <t>Budget at Completion (Budget totale)</t>
+  </si>
+  <si>
+    <t>var -5% +5%</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>%complet * BAC</t>
+  </si>
+  <si>
+    <t>% lavoro pianif*BAC</t>
+  </si>
+  <si>
+    <t>Budget totale stanziato</t>
+  </si>
+  <si>
+    <t>70-100</t>
+  </si>
+  <si>
+    <t>100-100</t>
+  </si>
+  <si>
+    <t>Requisiti cambiati</t>
+  </si>
+  <si>
+    <t>Requisiti cancellati</t>
+  </si>
+  <si>
+    <t>Requisiti aggiunti</t>
+  </si>
+  <si>
+    <t>Dati:</t>
+  </si>
+  <si>
+    <t>Requisiti obbligatori raggiunti</t>
+  </si>
+  <si>
+    <t>(1-(requisiti mod/req totali))*100</t>
+  </si>
+  <si>
+    <t>Linee codice testate/linee codice*100</t>
+  </si>
+  <si>
+    <t>Linee codice testate</t>
+  </si>
+  <si>
+    <t>Linee codice totali</t>
+  </si>
+  <si>
+    <t>75-85%  95%</t>
+  </si>
+  <si>
+    <t>90% 100%</t>
+  </si>
+  <si>
+    <t>10% 0%</t>
+  </si>
+  <si>
+    <t>&lt;5</t>
+  </si>
+  <si>
+    <t>Test totali</t>
+  </si>
+  <si>
+    <t>Test passati</t>
+  </si>
+  <si>
+    <t>Test falliti</t>
+  </si>
+  <si>
+    <t>Metriche soddisfatte</t>
+  </si>
+  <si>
+    <t>Totale metriche</t>
+  </si>
+  <si>
+    <t>Numero intero</t>
+  </si>
+  <si>
+    <t>metriche sodd/metriche totali*100</t>
+  </si>
+  <si>
+    <t>test passati/test totali*100</t>
+  </si>
+  <si>
+    <t>test falliti/test totali*100</t>
+  </si>
+  <si>
+    <t>Percentuale di lavoro completata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +238,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,16 +271,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -469,22 +605,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E02C8E-8587-4B94-82DE-105FC5F151F1}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -510,80 +649,632 @@
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
+        <f>(1-B6/B5)*100</f>
+        <v>-12.5</v>
+      </c>
+      <c r="C2" s="3" t="e">
+        <f t="shared" ref="C2:J2" si="0">(1-C6/C5)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D2" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E2" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F2" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G2" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H2" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I2" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J2" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <f>(1-B15/B6)*100</f>
+        <v>100</v>
+      </c>
+      <c r="C3" s="3" t="e">
+        <f t="shared" ref="C3:J3" si="1">(1-C15/C6)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D3" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E3" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F3" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G3" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H3" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I3" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3">
+        <f>B16/13355*100</f>
+        <v>100</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:J4" si="2">C16/13355*100</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="3">
+        <f>B17*B16</f>
+        <v>1068.4000000000001</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" ref="C5:J5" si="3">9/100*C16</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="3">
+        <f>9/100*B16</f>
+        <v>1201.95</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" ref="C6:J6" si="4">9/100*C16</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="3">
+        <f>(1-(B18+B19+B20)/42)*100</f>
+        <v>100</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" ref="C7:J7" si="5">(1-(C18+C19+C20)/42)*100</f>
+        <v>100</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="3">
+        <f>B21/25*100</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" ref="C8:J8" si="6">C21/25*100</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="3" t="e">
+        <f>B22/B23*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C9" s="3" t="e">
+        <f t="shared" ref="C9:J9" si="7">C22/C23*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D9" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E9" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="3" t="e">
+        <f>B25/B24*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C10" s="3" t="e">
+        <f t="shared" ref="C10:J10" si="8">C25/C24*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E10" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="3" t="e">
+        <f>B26/B24*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C11" s="3" t="e">
+        <f t="shared" ref="C11:J11" si="9">C26/C24*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E11" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F11" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="3" t="e">
+        <f>B27/B28*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" s="3" t="e">
+        <f t="shared" ref="C12:J12" si="10">C27/C28*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D12" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F12" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>13355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DocEsterna/PianoDiQualifica/Images/Metriche processi.xlsx
+++ b/DocEsterna/PianoDiQualifica/Images/Metriche processi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zenma\Desktop\Desktop Marco\UNIPD\Ingegneria del Software\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CEDA47-68FA-4338-92D3-AE3CDC8B7740}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9179DE-81AE-4B3A-9B2C-61FCD903EC02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Metriche processi</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Non-calculated Risk</t>
   </si>
   <si>
-    <t>Incremento 0</t>
-  </si>
-  <si>
     <t>Valore ottimale</t>
   </si>
   <si>
@@ -208,13 +205,25 @@
   </si>
   <si>
     <t>Percentuale di lavoro completata</t>
+  </si>
+  <si>
+    <t>Periodo 1 (Progettazione Architetturale)</t>
+  </si>
+  <si>
+    <t>Incremento 9</t>
+  </si>
+  <si>
+    <t>Incremento 10</t>
+  </si>
+  <si>
+    <t>Incremento 11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +258,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -605,25 +620,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E02C8E-8587-4B94-82DE-105FC5F151F1}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -650,13 +668,22 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -665,11 +692,11 @@
         <v>-12.5</v>
       </c>
       <c r="C2" s="3" t="e">
-        <f t="shared" ref="C2:J2" si="0">(1-C6/C5)*100</f>
+        <f>(1-C6/C5)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D2" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D2:M2" si="0">(1-D6/D5)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E2" s="3" t="e">
@@ -696,14 +723,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K2" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L2" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M2" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -712,11 +751,11 @@
         <v>100</v>
       </c>
       <c r="C3" s="3" t="e">
-        <f t="shared" ref="C3:J3" si="1">(1-C15/C6)*100</f>
+        <f>(1-C15/C6)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D3:M3" si="1">(1-D15/D6)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="3" t="e">
@@ -743,27 +782,39 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K3" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M3" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3">
         <f>B16/13355*100</f>
         <v>100</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:J4" si="2">C16/13355*100</f>
+        <f>C16/13355*100</f>
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D4:M4" si="2">D16/13355*100</f>
         <v>0</v>
       </c>
       <c r="E4" s="3">
@@ -790,14 +841,26 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
         <v>28</v>
       </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -806,11 +869,11 @@
         <v>1068.4000000000001</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C5:J5" si="3">9/100*C16</f>
+        <f>C17*B16</f>
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D5:M5" si="3">9/100*D16</f>
         <v>0</v>
       </c>
       <c r="E5" s="3">
@@ -837,11 +900,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K5" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -850,11 +925,11 @@
         <v>1201.95</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" ref="C6:J6" si="4">9/100*C16</f>
+        <f>9/100*C16</f>
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D6:M6" si="4">9/100*D16</f>
         <v>0</v>
       </c>
       <c r="E6" s="3">
@@ -881,11 +956,23 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K6" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -894,11 +981,11 @@
         <v>100</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ref="C7:J7" si="5">(1-(C18+C19+C20)/42)*100</f>
+        <f>(1-(C18+C19+C20)/42)*100</f>
         <v>100</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D7:M7" si="5">(1-(D18+D19+D20)/42)*100</f>
         <v>100</v>
       </c>
       <c r="E7" s="3">
@@ -925,14 +1012,26 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K7" s="3">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -941,11 +1040,11 @@
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" ref="C8:J8" si="6">C21/25*100</f>
+        <f>C21/25*100</f>
         <v>0</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D8:M8" si="6">D21/25*100</f>
         <v>0</v>
       </c>
       <c r="E8" s="3">
@@ -972,11 +1071,23 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K8" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -985,11 +1096,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C9" s="3" t="e">
-        <f t="shared" ref="C9:J9" si="7">C22/C23*100</f>
+        <f>C22/C23*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D9" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D9:K9" si="7">D22/D23*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E9" s="3" t="e">
@@ -1016,14 +1127,26 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K9" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="3" t="e">
+        <f t="shared" ref="L9:M9" si="8">L22/L23*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1032,45 +1155,57 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C10" s="3" t="e">
-        <f t="shared" ref="C10:J10" si="8">C25/C24*100</f>
+        <f>C25/C24*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D10" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D10:K10" si="9">D25/D24*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E10" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F10" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G10" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H10" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I10" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J10" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="3" t="e">
+        <f t="shared" ref="L10:M10" si="10">L25/L24*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1079,45 +1214,57 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C11" s="3" t="e">
-        <f t="shared" ref="C11:J11" si="9">C26/C24*100</f>
+        <f>C26/C24*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D11" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="D11:K11" si="11">D26/D24*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E11" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F11" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G11" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H11" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I11" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J11" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="3" t="e">
+        <f t="shared" ref="L11:M11" si="12">L26/L24*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" s="3" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1126,50 +1273,62 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" s="3" t="e">
-        <f t="shared" ref="C12:J12" si="10">C27/C28*100</f>
+        <f>C27/C28*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D12" s="3" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D12:K12" si="13">D27/D28*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E12" s="3" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F12" s="3" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="3" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H12" s="3" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I12" s="3" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J12" s="3" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="3" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="3" t="e">
+        <f t="shared" ref="L12:M12" si="14">L27/L28*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" s="3" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1177,39 +1336,43 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>13355</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="7">
         <v>0.08</v>
       </c>
-      <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1217,63 +1380,67 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/DocEsterna/PianoDiQualifica/Images/Metriche processi.xlsx
+++ b/DocEsterna/PianoDiQualifica/Images/Metriche processi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zenma\Desktop\Desktop Marco\UNIPD\Ingegneria del Software\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9179DE-81AE-4B3A-9B2C-61FCD903EC02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C72140C-107A-4FB4-93D6-2950527DDD89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>Metriche processi</t>
   </si>
@@ -211,12 +211,6 @@
   </si>
   <si>
     <t>Incremento 9</t>
-  </si>
-  <si>
-    <t>Incremento 10</t>
-  </si>
-  <si>
-    <t>Incremento 11</t>
   </si>
 </sst>
 </file>
@@ -620,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E02C8E-8587-4B94-82DE-105FC5F151F1}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,11 +626,10 @@
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,19 +664,13 @@
         <v>58</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -696,7 +683,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D2" s="3" t="e">
-        <f t="shared" ref="D2:M2" si="0">(1-D6/D5)*100</f>
+        <f t="shared" ref="D2:K2" si="0">(1-D6/D5)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E2" s="3" t="e">
@@ -727,22 +714,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L2" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M2" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" t="s">
+      <c r="M2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -755,7 +734,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="3" t="e">
-        <f t="shared" ref="D3:M3" si="1">(1-D15/D6)*100</f>
+        <f t="shared" ref="D3:K3" si="1">(1-D15/D6)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="3" t="e">
@@ -786,22 +765,14 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M3" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="L3" t="s">
         <v>21</v>
       </c>
-      <c r="O3" t="s">
+      <c r="M3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -814,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:M4" si="2">D16/13355*100</f>
+        <f t="shared" ref="D4:K4" si="2">D16/13355*100</f>
         <v>0</v>
       </c>
       <c r="E4" s="3">
@@ -845,22 +816,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L4" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="L4" t="s">
         <v>27</v>
       </c>
-      <c r="O4" t="s">
+      <c r="M4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -873,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:M5" si="3">9/100*D16</f>
+        <f t="shared" ref="D5:K5" si="3">9/100*D16</f>
         <v>0</v>
       </c>
       <c r="E5" s="3">
@@ -904,19 +867,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L5" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="M5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -929,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:M6" si="4">9/100*D16</f>
+        <f t="shared" ref="D6:K6" si="4">9/100*D16</f>
         <v>0</v>
       </c>
       <c r="E6" s="3">
@@ -960,19 +915,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L6" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="M6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -985,7 +932,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" ref="D7:M7" si="5">(1-(D18+D19+D20)/42)*100</f>
+        <f t="shared" ref="D7:K7" si="5">(1-(D18+D19+D20)/42)*100</f>
         <v>100</v>
       </c>
       <c r="E7" s="3">
@@ -1016,22 +963,14 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="L7" s="3">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="M7" s="3">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="L7" t="s">
         <v>32</v>
       </c>
-      <c r="O7" t="s">
+      <c r="M7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1044,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:M8" si="6">D21/25*100</f>
+        <f t="shared" ref="D8:K8" si="6">D21/25*100</f>
         <v>0</v>
       </c>
       <c r="E8" s="3">
@@ -1075,19 +1014,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L8" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="L8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1131,22 +1062,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="3" t="e">
-        <f t="shared" ref="L9:M9" si="8">L22/L23*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="L9" t="s">
         <v>43</v>
       </c>
-      <c r="O9" t="s">
+      <c r="M9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1159,53 +1082,45 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D10" s="3" t="e">
-        <f t="shared" ref="D10:K10" si="9">D25/D24*100</f>
+        <f t="shared" ref="D10:K10" si="8">D25/D24*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E10" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F10" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G10" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H10" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I10" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J10" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K10" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="3" t="e">
-        <f t="shared" ref="L10:M10" si="10">L25/L24*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="3" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N10" t="s">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" t="s">
         <v>44</v>
       </c>
-      <c r="O10" t="s">
+      <c r="M10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1218,53 +1133,45 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D11" s="3" t="e">
-        <f t="shared" ref="D11:K11" si="11">D26/D24*100</f>
+        <f t="shared" ref="D11:K11" si="9">D26/D24*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E11" s="3" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F11" s="3" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G11" s="3" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H11" s="3" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I11" s="3" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J11" s="3" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K11" s="3" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L11" s="3" t="e">
-        <f t="shared" ref="L11:M11" si="12">L26/L24*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="3" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N11" t="s">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" t="s">
         <v>45</v>
       </c>
-      <c r="O11" t="s">
+      <c r="M11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1277,57 +1184,51 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D12" s="3" t="e">
-        <f t="shared" ref="D12:K12" si="13">D27/D28*100</f>
+        <f t="shared" ref="D12:K12" si="10">D27/D28*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E12" s="3" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F12" s="3" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="3" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H12" s="3" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I12" s="3" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J12" s="3" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K12" s="3" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" s="3" t="e">
-        <f t="shared" ref="L12:M12" si="14">L27/L28*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="3" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" t="s">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" t="s">
         <v>44</v>
       </c>
-      <c r="O12" t="s">
+      <c r="M12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1337,28 +1238,26 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" t="s">
+      <c r="L13" t="s">
         <v>46</v>
       </c>
-      <c r="O13" t="s">
+      <c r="M13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
@@ -1366,7 +1265,7 @@
         <v>13355</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>56</v>
       </c>
@@ -1381,60 +1280,58 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>

--- a/DocEsterna/PianoDiQualifica/Images/Metriche processi.xlsx
+++ b/DocEsterna/PianoDiQualifica/Images/Metriche processi.xlsx
@@ -8,18 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zenma\Desktop\Desktop Marco\UNIPD\Ingegneria del Software\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F82268-328C-4CDE-BC6E-1722FAFA7CBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFD4EB8-F362-46BE-8E7B-9C89F26075DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Metriche Processi" sheetId="3" r:id="rId1"/>
-    <sheet name="Metriche Processi (real)" sheetId="4" r:id="rId2"/>
-    <sheet name="Grafici" sheetId="5" r:id="rId3"/>
+    <sheet name="Metriche Processi" sheetId="4" r:id="rId1"/>
+    <sheet name="Grafici" sheetId="5" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="72">
-  <si>
-    <t>Metriche processi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="69">
   <si>
     <t>Incremento 1</t>
   </si>
@@ -185,9 +178,6 @@
     <t>test falliti/test totali*100</t>
   </si>
   <si>
-    <t>Percentuale di lavoro completata</t>
-  </si>
-  <si>
     <t>Incremento 9</t>
   </si>
   <si>
@@ -216,9 +206,6 @@
   </si>
   <si>
     <t>Verifica e collaudo</t>
-  </si>
-  <si>
-    <t>Percentuale programmata</t>
   </si>
   <si>
     <t>Percentuale lavoro programmata</t>
@@ -263,9 +250,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,12 +291,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -338,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -352,7 +333,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -373,7 +353,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -477,7 +457,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$A$11</c:f>
+              <c:f>'Metriche Processi'!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -488,7 +468,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$B$10:$D$10</c:f>
+              <c:f>'Metriche Processi'!$B$10:$D$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -505,7 +485,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi (real)'!$B$11:$D$11</c:f>
+              <c:f>'Metriche Processi'!$B$11:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="3"/>
@@ -533,7 +513,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$A$12</c:f>
+              <c:f>'Metriche Processi'!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -544,7 +524,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$B$10:$D$10</c:f>
+              <c:f>'Metriche Processi'!$B$10:$D$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -561,7 +541,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi (real)'!$B$12:$D$12</c:f>
+              <c:f>'Metriche Processi'!$B$12:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -589,7 +569,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$A$11</c:f>
+              <c:f>'Metriche Processi'!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -600,7 +580,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$B$10:$D$10</c:f>
+              <c:f>'Metriche Processi'!$B$10:$D$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -617,7 +597,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi (real)'!$B$11:$D$11</c:f>
+              <c:f>'Metriche Processi'!$B$11:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="3"/>
@@ -645,7 +625,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$A$12</c:f>
+              <c:f>'Metriche Processi'!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -656,7 +636,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$B$10:$D$10</c:f>
+              <c:f>'Metriche Processi'!$B$10:$D$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -673,7 +653,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi (real)'!$B$12:$D$12</c:f>
+              <c:f>'Metriche Processi'!$B$12:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -918,7 +898,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Metriche Variazioni Budget</a:t>
+              <a:t>Variazioni Budget</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -939,8 +919,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10053291633872259"/>
-          <c:y val="0.17007582518514358"/>
+          <c:x val="0.10053285203991102"/>
+          <c:y val="0.16638238779709322"/>
           <c:w val="0.72315606154080492"/>
           <c:h val="0.71531223417017475"/>
         </c:manualLayout>
@@ -953,7 +933,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$A$15</c:f>
+              <c:f>'Metriche Processi'!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -964,7 +944,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$B$14:$D$14</c:f>
+              <c:f>'Metriche Processi'!$B$14:$D$14</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -981,7 +961,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi (real)'!$B$15:$D$15</c:f>
+              <c:f>'Metriche Processi'!$B$15:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1009,7 +989,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$A$16</c:f>
+              <c:f>'Metriche Processi'!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1020,7 +1000,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$B$14:$D$14</c:f>
+              <c:f>'Metriche Processi'!$B$14:$D$14</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1037,7 +1017,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi (real)'!$B$16:$D$16</c:f>
+              <c:f>'Metriche Processi'!$B$16:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1098,7 +1078,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1128,7 +1108,7 @@
         <c:axId val="1946411568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.15000000000000002"/>
+          <c:max val="5.000000000000001E-2"/>
           <c:min val="-0.15000000000000002"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1190,7 +1170,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.73868294317857974"/>
-          <c:y val="0.2949459433914251"/>
+          <c:y val="0.29494594339142516"/>
           <c:w val="0.2408310197673231"/>
           <c:h val="0.54340451210911644"/>
         </c:manualLayout>
@@ -1318,7 +1298,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$A$3</c:f>
+              <c:f>'Metriche Processi'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1329,7 +1309,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$B$2:$D$2</c:f>
+              <c:f>'Metriche Processi'!$B$2:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1346,7 +1326,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi (real)'!$B$3:$D$3</c:f>
+              <c:f>'Metriche Processi'!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1374,7 +1354,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$A$4</c:f>
+              <c:f>'Metriche Processi'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1385,7 +1365,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$B$2:$D$2</c:f>
+              <c:f>'Metriche Processi'!$B$2:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1402,7 +1382,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi (real)'!$B$4:$D$4</c:f>
+              <c:f>'Metriche Processi'!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1683,7 +1663,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$A$7</c:f>
+              <c:f>'Metriche Processi'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1694,7 +1674,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$B$6:$D$6</c:f>
+              <c:f>'Metriche Processi'!$B$6:$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1711,7 +1691,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi (real)'!$B$7:$D$7</c:f>
+              <c:f>'Metriche Processi'!$B$7:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1739,7 +1719,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$A$8</c:f>
+              <c:f>'Metriche Processi'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1750,7 +1730,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$B$6:$D$6</c:f>
+              <c:f>'Metriche Processi'!$B$6:$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1767,7 +1747,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi (real)'!$B$8:$D$8</c:f>
+              <c:f>'Metriche Processi'!$B$8:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2013,8 +1993,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Requisiti</a:t>
+              <a:t>Stabilità dei requisiti e requisiti obbligatori</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> soddisfatti</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2022,8 +2007,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.42848096841780753"/>
-          <c:y val="2.2160664819944598E-2"/>
+          <c:x val="0.12525750930653959"/>
+          <c:y val="3.3240997229916899E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2056,7 +2041,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$A$19</c:f>
+              <c:f>'Metriche Processi'!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2067,7 +2052,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$B$18:$D$18</c:f>
+              <c:f>'Metriche Processi'!$B$18:$D$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2084,7 +2069,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi (real)'!$B$19:$D$19</c:f>
+              <c:f>'Metriche Processi'!$B$19:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2112,7 +2097,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$A$20</c:f>
+              <c:f>'Metriche Processi'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2123,7 +2108,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$B$18:$D$18</c:f>
+              <c:f>'Metriche Processi'!$B$18:$D$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2140,7 +2125,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi (real)'!$B$20:$D$20</c:f>
+              <c:f>'Metriche Processi'!$B$20:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2386,7 +2371,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Codice</a:t>
+              <a:t>Correttezza del codice</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2395,8 +2380,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.42848096841780753"/>
-          <c:y val="2.2160664819944598E-2"/>
+          <c:x val="0.35108927288010738"/>
+          <c:y val="4.0627885503231764E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2429,7 +2414,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$A$29</c:f>
+              <c:f>'Metriche Processi'!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2440,7 +2425,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$B$28:$D$28</c:f>
+              <c:f>'Metriche Processi'!$B$28:$D$28</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2457,7 +2442,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi (real)'!$B$29:$D$29</c:f>
+              <c:f>'Metriche Processi'!$B$29:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2485,7 +2470,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$A$30</c:f>
+              <c:f>'Metriche Processi'!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2496,7 +2481,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$B$28:$D$28</c:f>
+              <c:f>'Metriche Processi'!$B$28:$D$28</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2513,7 +2498,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi (real)'!$B$30:$D$30</c:f>
+              <c:f>'Metriche Processi'!$B$30:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2541,7 +2526,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$A$31</c:f>
+              <c:f>'Metriche Processi'!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2552,7 +2537,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$B$28:$D$28</c:f>
+              <c:f>'Metriche Processi'!$B$28:$D$28</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2569,7 +2554,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi (real)'!$B$31:$D$31</c:f>
+              <c:f>'Metriche Processi'!$B$31:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2858,7 +2843,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$A$39</c:f>
+              <c:f>'Metriche Processi'!$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2869,7 +2854,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$B$38:$D$38</c:f>
+              <c:f>'Metriche Processi'!$B$38:$D$38</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2886,18 +2871,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi (real)'!$B$39:$D$39</c:f>
+              <c:f>'Metriche Processi'!$B$39:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3131,7 +3116,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$A$44</c:f>
+              <c:f>'Metriche Processi'!$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3142,7 +3127,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$B$43:$D$43</c:f>
+              <c:f>'Metriche Processi'!$B$43:$D$43</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3159,7 +3144,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi (real)'!$B$44:$D$44</c:f>
+              <c:f>'Metriche Processi'!$B$44:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3181,7 +3166,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$A$45</c:f>
+              <c:f>'Metriche Processi'!$A$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3208,7 +3193,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi (real)'!$B$43:$D$43</c:f>
+              <c:f>'Metriche Processi'!$B$43:$D$43</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3225,7 +3210,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi (real)'!$B$45:$D$45</c:f>
+              <c:f>'Metriche Processi'!$B$45:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3489,15 +3474,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>315446</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>108697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
+      <xdr:colOff>448797</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>118222</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3753,23 +3738,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Foglio1"/>
-      <sheetName val="Metriche Software"/>
-      <sheetName val="Metriche Documenti"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5784,893 +5752,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E02C8E-8587-4B94-82DE-105FC5F151F1}">
-  <dimension ref="A1:N29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8B9997-03EC-43C2-97CE-34BB19C7C836}">
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:A29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="10">
-        <f>B5/B6-1</f>
-        <v>-4.8670909771620918E-3</v>
-      </c>
-      <c r="C2" s="10">
-        <f t="shared" ref="C2:L2" si="0">C5/C6-1</f>
-        <v>-0.12520554099588177</v>
-      </c>
-      <c r="D2" s="10">
-        <f t="shared" si="0"/>
-        <v>5.6907525271432391E-3</v>
-      </c>
-      <c r="E2" s="10">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F2" s="10">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="G2" s="10">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="H2" s="10">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="I2" s="10">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="J2" s="10">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="K2" s="10">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="L2" s="10">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="M2" s="11">
-        <v>-0.05</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="10">
-        <f t="shared" ref="B3:C3" si="1">B6/B15-1</f>
-        <v>0.19028520499108725</v>
-      </c>
-      <c r="C3" s="10">
-        <f t="shared" si="1"/>
-        <v>-9.7247157390778494E-4</v>
-      </c>
-      <c r="D3" s="10">
-        <f>D6/D15-1</f>
-        <v>-0.11478126380910292</v>
-      </c>
-      <c r="E3" s="10" t="e">
-        <f t="shared" ref="E3:K3" si="2">1-E6/E15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F3" s="10" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G3" s="10" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H3" s="10" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" s="10" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J3" s="10" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" s="10" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" s="10" t="e">
-        <f t="shared" ref="L3" si="3">1-L6/L15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M3" s="11">
-        <v>-0.05</v>
-      </c>
-      <c r="N3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8">
-        <f>(B17/13355-1)</f>
-        <v>-4.8670909771620918E-3</v>
-      </c>
-      <c r="C4" s="9">
-        <f>(C17/13355-1)</f>
-        <v>-5.9153874953200569E-3</v>
-      </c>
-      <c r="D4" s="9">
-        <f t="shared" ref="D4:K4" si="4">(D17/13355-1)</f>
-        <v>5.6907525271434611E-3</v>
-      </c>
-      <c r="E4" s="9">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="F4" s="9">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="G4" s="9">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="H4" s="9">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="I4" s="9">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="J4" s="9">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="K4" s="9">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="L4" s="9">
-        <f t="shared" ref="L4" si="5">(L17/13355-1)</f>
-        <v>-1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="3">
-        <f>B18*B17</f>
-        <v>1993.5</v>
-      </c>
-      <c r="C5" s="3">
-        <f t="shared" ref="C5:K5" si="6">C18*C17</f>
-        <v>2920.72</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="6"/>
-        <v>4029.2999999999997</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <f t="shared" ref="L5" si="7">L18*L17</f>
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="15">
-        <f>B14*13355</f>
-        <v>2003.25</v>
-      </c>
-      <c r="C6" s="15">
-        <f t="shared" ref="C6:L6" si="8">C14*13355</f>
-        <v>3338.75</v>
-      </c>
-      <c r="D6" s="15">
-        <f t="shared" si="8"/>
-        <v>4006.5</v>
-      </c>
-      <c r="E6" s="15">
-        <f t="shared" si="8"/>
-        <v>4856.3636363636369</v>
-      </c>
-      <c r="F6" s="15">
-        <f t="shared" si="8"/>
-        <v>6070.454545454546</v>
-      </c>
-      <c r="G6" s="15">
-        <f t="shared" si="8"/>
-        <v>7284.545454545454</v>
-      </c>
-      <c r="H6" s="15">
-        <f t="shared" si="8"/>
-        <v>8498.636363636364</v>
-      </c>
-      <c r="I6" s="15">
-        <f t="shared" si="8"/>
-        <v>9712.7272727272739</v>
-      </c>
-      <c r="J6" s="15">
-        <f t="shared" si="8"/>
-        <v>10926.818181818182</v>
-      </c>
-      <c r="K6" s="15">
-        <f t="shared" si="8"/>
-        <v>12140.909090909092</v>
-      </c>
-      <c r="L6" s="15">
-        <f t="shared" si="8"/>
-        <v>13355</v>
-      </c>
-      <c r="N6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3">
-        <f>(1-(B19+B20+B21)/42)*100</f>
-        <v>100</v>
-      </c>
-      <c r="C7" s="3">
-        <f>(1-(C19+C20+C21)/42)*100</f>
-        <v>100</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" ref="D7:K7" si="9">(1-(D19+D20+D21)/42)*100</f>
-        <v>100</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-      <c r="I7" s="3">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-      <c r="J7" s="3">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-      <c r="K7" s="3">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-      <c r="L7" s="3">
-        <f t="shared" ref="L7" si="10">(1-(L19+L20+L21)/42)*100</f>
-        <v>100</v>
-      </c>
-      <c r="M7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3">
-        <f>B22/25*100</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <f>C22/25*100</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" ref="D8:K8" si="11">D22/25*100</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <f t="shared" ref="L8" si="12">L22/25*100</f>
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="e">
-        <f>B23/B24*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" s="3" t="e">
-        <f>C23/C24*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="3" t="e">
-        <f t="shared" ref="D9:K9" si="13">D23/D24*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="3" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="3" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="3" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="3" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="3" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="3" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" s="3" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="3" t="e">
-        <f t="shared" ref="L9" si="14">L23/L24*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3" t="e">
-        <f>B26/B25*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C10" s="3" t="e">
-        <f>C26/C25*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="3" t="e">
-        <f t="shared" ref="D10:K10" si="15">D26/D25*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="3" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="3" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="3" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="3" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="3" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="3" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="3" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="3" t="e">
-        <f t="shared" ref="L10" si="16">L26/L25*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3" t="e">
-        <f>B27/B25*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C11" s="3" t="e">
-        <f>C27/C25*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="3" t="e">
-        <f t="shared" ref="D11:K11" si="17">D27/D25*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="3" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="3" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="3" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="3" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="3" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="3" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="3" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L11" s="3" t="e">
-        <f t="shared" ref="L11" si="18">L27/L25*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3" t="e">
-        <f>B28/B29*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C12" s="3" t="e">
-        <f>C28/C29*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="3" t="e">
-        <f t="shared" ref="D12:K12" si="19">D28/D29*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="3" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="3" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="3" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="3" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="3" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="3" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" s="3" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" s="3" t="e">
-        <f t="shared" ref="L12" si="20">L28/L29*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" t="s">
-        <v>36</v>
-      </c>
-      <c r="N12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="C14" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="D14" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="E14" s="14">
-        <f>100/1100*4</f>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="F14" s="14">
-        <f>100/1100*5</f>
-        <v>0.45454545454545459</v>
-      </c>
-      <c r="G14" s="14">
-        <f>100/1100*6</f>
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="H14" s="14">
-        <f>100/1100*7</f>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="I14" s="14">
-        <f>100/1100*8</f>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="J14" s="14">
-        <f>100/1100*9</f>
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="K14" s="14">
-        <f>100/1100*10</f>
-        <v>0.90909090909090917</v>
-      </c>
-      <c r="L14" s="14">
-        <f>100/1100*11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="13">
-        <v>1683</v>
-      </c>
-      <c r="C15">
-        <f>B15+1659</f>
-        <v>3342</v>
-      </c>
-      <c r="D15">
-        <f>C15+1184</f>
-        <v>4526</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="13">
-        <f>1673+1119+6210+2605</f>
-        <v>11607</v>
-      </c>
-      <c r="C16" s="13">
-        <f>1119+6210+2605</f>
-        <v>9934</v>
-      </c>
-      <c r="D16">
-        <f>6300+2605</f>
-        <v>8905</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ref="B17:C17" si="21">B15+B16</f>
-        <v>13290</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="21"/>
-        <v>13276</v>
-      </c>
-      <c r="D17">
-        <f>D15+D16</f>
-        <v>13431</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="C18" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="D18" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="J18" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="K18" s="7">
-        <v>1</v>
-      </c>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8B9997-03EC-43C2-97CE-34BB19C7C836}">
-  <dimension ref="A1:N48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:L45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="12" width="10.28515625" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
@@ -6679,106 +5771,106 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="14">
+        <v>57</v>
+      </c>
+      <c r="B1" s="13">
         <v>0.115</v>
       </c>
-      <c r="C1" s="14">
+      <c r="C1" s="13">
         <v>0.23</v>
       </c>
-      <c r="D1" s="14">
+      <c r="D1" s="13">
         <v>0.31</v>
       </c>
-      <c r="E1" s="14">
+      <c r="E1" s="13">
         <f>100/1100*4</f>
         <v>0.36363636363636365</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="13">
         <f>100/1100*5</f>
         <v>0.45454545454545459</v>
       </c>
-      <c r="G1" s="14">
+      <c r="G1" s="13">
         <f>100/1100*6</f>
         <v>0.54545454545454541</v>
       </c>
-      <c r="H1" s="14">
+      <c r="H1" s="13">
         <f>100/1100*7</f>
         <v>0.63636363636363635</v>
       </c>
-      <c r="I1" s="14">
+      <c r="I1" s="13">
         <f>100/1100*8</f>
         <v>0.72727272727272729</v>
       </c>
-      <c r="J1" s="14">
+      <c r="J1" s="13">
         <f>100/1100*9</f>
         <v>0.81818181818181823</v>
       </c>
-      <c r="K1" s="14">
+      <c r="K1" s="13">
         <f>100/1100*10</f>
         <v>0.90909090909090917</v>
       </c>
-      <c r="L1" s="14">
+      <c r="L1" s="13">
         <f>100/1100*11</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="13">
+      <c r="A3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="5">
         <v>1683</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <f>B3+1659</f>
         <v>3342</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <f>C3+1184</f>
         <v>4526</v>
       </c>
@@ -6794,18 +5886,18 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="13">
+      <c r="A4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="5">
         <f>1673+1119+6210+2605</f>
         <v>11607</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="5">
         <f>1119+6210+2605</f>
         <v>9934</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <f>6300+2605</f>
         <v>8905</v>
       </c>
@@ -6821,9 +5913,9 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -6837,278 +5929,302 @@
     </row>
     <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3">
-        <f>B1*B12</f>
+        <f t="shared" ref="B7:L7" si="0">B1*B12</f>
         <v>1528.3500000000001</v>
       </c>
       <c r="C7" s="3">
-        <f>C1*C12</f>
+        <f t="shared" si="0"/>
         <v>3053.48</v>
       </c>
       <c r="D7" s="3">
-        <f>D1*D12</f>
+        <f t="shared" si="0"/>
         <v>4163.6099999999997</v>
       </c>
       <c r="E7" s="3">
-        <f>E1*E12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <f>F1*F12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <f>G1*G12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <f>H1*H12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="3">
-        <f>I1*I12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <f>J1*J12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <f>K1*K12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L7" s="3">
-        <f>L1*L12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="15">
-        <f>B1*13355</f>
+        <v>51</v>
+      </c>
+      <c r="B8" s="14">
+        <f t="shared" ref="B8:L8" si="1">B1*13355</f>
         <v>1535.825</v>
       </c>
-      <c r="C8" s="15">
-        <f>C1*13355</f>
+      <c r="C8" s="14">
+        <f t="shared" si="1"/>
         <v>3071.65</v>
       </c>
-      <c r="D8" s="15">
-        <f>D1*13355</f>
+      <c r="D8" s="14">
+        <f t="shared" si="1"/>
         <v>4140.05</v>
       </c>
-      <c r="E8" s="15">
-        <f>E1*13355</f>
+      <c r="E8" s="14">
+        <f t="shared" si="1"/>
         <v>4856.3636363636369</v>
       </c>
-      <c r="F8" s="15">
-        <f>F1*13355</f>
+      <c r="F8" s="14">
+        <f t="shared" si="1"/>
         <v>6070.454545454546</v>
       </c>
-      <c r="G8" s="15">
-        <f>G1*13355</f>
+      <c r="G8" s="14">
+        <f t="shared" si="1"/>
         <v>7284.545454545454</v>
       </c>
-      <c r="H8" s="15">
-        <f>H1*13355</f>
+      <c r="H8" s="14">
+        <f t="shared" si="1"/>
         <v>8498.636363636364</v>
       </c>
-      <c r="I8" s="15">
-        <f>I1*13355</f>
+      <c r="I8" s="14">
+        <f t="shared" si="1"/>
         <v>9712.7272727272739</v>
       </c>
-      <c r="J8" s="15">
-        <f>J1*13355</f>
+      <c r="J8" s="14">
+        <f t="shared" si="1"/>
         <v>10926.818181818182</v>
       </c>
-      <c r="K8" s="15">
-        <f>K1*13355</f>
+      <c r="K8" s="14">
+        <f t="shared" si="1"/>
         <v>12140.909090909092</v>
       </c>
-      <c r="L8" s="15">
-        <f>L1*13355</f>
+      <c r="L8" s="14">
+        <f t="shared" si="1"/>
         <v>13355</v>
       </c>
       <c r="N8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="15">
+        <v>13355</v>
+      </c>
+      <c r="C11" s="15">
+        <v>13355</v>
+      </c>
+      <c r="D11" s="15">
+        <v>13355</v>
+      </c>
+      <c r="E11" s="15">
+        <v>13355</v>
+      </c>
+      <c r="F11" s="15">
+        <v>13355</v>
+      </c>
+      <c r="G11" s="15">
+        <v>13355</v>
+      </c>
+      <c r="H11" s="15">
+        <v>13355</v>
+      </c>
+      <c r="I11" s="15">
+        <v>13355</v>
+      </c>
+      <c r="J11" s="15">
+        <v>13355</v>
+      </c>
+      <c r="K11" s="15">
+        <v>13355</v>
+      </c>
+      <c r="L11" s="15">
+        <v>13355</v>
+      </c>
+      <c r="M11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="16">
-        <v>13355</v>
-      </c>
-      <c r="C11" s="16">
-        <v>13355</v>
-      </c>
-      <c r="D11" s="16">
-        <v>13355</v>
-      </c>
-      <c r="E11" s="16">
-        <v>13355</v>
-      </c>
-      <c r="F11" s="16">
-        <v>13355</v>
-      </c>
-      <c r="G11" s="16">
-        <v>13355</v>
-      </c>
-      <c r="H11" s="16">
-        <v>13355</v>
-      </c>
-      <c r="I11" s="16">
-        <v>13355</v>
-      </c>
-      <c r="J11" s="16">
-        <v>13355</v>
-      </c>
-      <c r="K11" s="16">
-        <v>13355</v>
-      </c>
-      <c r="L11" s="16">
-        <v>13355</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>21</v>
-      </c>
-      <c r="N11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12">
+      <c r="A12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2">
         <f>B3+B4</f>
         <v>13290</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <f>C3+C4</f>
         <v>13276</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <f>D3+D4</f>
         <v>13431</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="E12" s="2">
+        <f t="shared" ref="E12:L12" si="2">E3+E4</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
@@ -7130,707 +6246,707 @@
     </row>
     <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="K14" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="10">
-        <f>B7/B8-1</f>
+        <v>49</v>
+      </c>
+      <c r="B15" s="9">
+        <f t="shared" ref="B15:L15" si="3">B7/B8-1</f>
         <v>-4.8670909771620918E-3</v>
       </c>
-      <c r="C15" s="9">
-        <f>C7/C8-1</f>
+      <c r="C15" s="8">
+        <f t="shared" si="3"/>
         <v>-5.9153874953201679E-3</v>
       </c>
-      <c r="D15" s="10">
-        <f>D7/D8-1</f>
+      <c r="D15" s="9">
+        <f t="shared" si="3"/>
         <v>5.6907525271432391E-3</v>
       </c>
-      <c r="E15" s="10">
-        <f>E7/E8-1</f>
+      <c r="E15" s="9">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="F15" s="10">
-        <f>F7/F8-1</f>
+      <c r="F15" s="9">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="G15" s="10">
-        <f>G7/G8-1</f>
+      <c r="G15" s="9">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="H15" s="10">
-        <f>H7/H8-1</f>
+      <c r="H15" s="9">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="I15" s="10">
-        <f>I7/I8-1</f>
+      <c r="I15" s="9">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="J15" s="10">
-        <f>J7/J8-1</f>
+      <c r="J15" s="9">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="K15" s="10">
-        <f>K7/K8-1</f>
+      <c r="K15" s="9">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="L15" s="10">
-        <f>L7/L8-1</f>
+      <c r="L15" s="9">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="10">
         <v>-0.1</v>
       </c>
       <c r="N15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="10">
+        <v>50</v>
+      </c>
+      <c r="B16" s="9">
         <f>B8/B3-1</f>
         <v>-8.7448009506832958E-2</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <f>C8/C3-1</f>
         <v>-8.0894673847995202E-2</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <f>D8/D3-1</f>
         <v>-8.5273972602739723E-2</v>
       </c>
-      <c r="E16" s="10" t="e">
+      <c r="E16" s="9" t="e">
         <f>1-E8/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F16" s="10" t="e">
+      <c r="F16" s="9" t="e">
         <f>1-F8/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G16" s="10" t="e">
+      <c r="G16" s="9" t="e">
         <f>1-G8/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H16" s="10" t="e">
+      <c r="H16" s="9" t="e">
         <f>1-H8/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I16" s="10" t="e">
+      <c r="I16" s="9" t="e">
         <f>1-I8/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J16" s="10" t="e">
+      <c r="J16" s="9" t="e">
         <f>1-J8/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K16" s="10" t="e">
+      <c r="K16" s="9" t="e">
         <f>1-K8/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L16" s="10" t="e">
+      <c r="L16" s="9" t="e">
         <f>1-L8/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="10">
         <v>-0.1</v>
       </c>
       <c r="N16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="K18" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="10">
+        <v>8</v>
+      </c>
+      <c r="B19" s="9">
         <f>(1-(B21+B22+B23)/B24)</f>
         <v>1</v>
       </c>
-      <c r="C19" s="10">
-        <f t="shared" ref="C19:L19" si="0">(1-(C21+C22+C23)/C24)</f>
+      <c r="C19" s="9">
+        <f t="shared" ref="C19:L19" si="4">(1-(C21+C22+C23)/C24)</f>
         <v>1</v>
       </c>
-      <c r="D19" s="10">
-        <f t="shared" si="0"/>
+      <c r="D19" s="9">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E19" s="10">
-        <f t="shared" si="0"/>
+      <c r="E19" s="9">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F19" s="10">
-        <f t="shared" si="0"/>
+      <c r="F19" s="9">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G19" s="10">
-        <f t="shared" si="0"/>
+      <c r="G19" s="9">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H19" s="10">
-        <f t="shared" si="0"/>
+      <c r="H19" s="9">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I19" s="10">
-        <f t="shared" si="0"/>
+      <c r="I19" s="9">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J19" s="10">
-        <f t="shared" si="0"/>
+      <c r="J19" s="9">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K19" s="10">
-        <f t="shared" si="0"/>
+      <c r="K19" s="9">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L19" s="10">
-        <f t="shared" si="0"/>
+      <c r="L19" s="9">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="10">
+        <v>9</v>
+      </c>
+      <c r="B20" s="9">
         <f>B26/B25</f>
         <v>0</v>
       </c>
-      <c r="C20" s="10">
-        <f t="shared" ref="C20:L20" si="1">C26/C25</f>
+      <c r="C20" s="9">
+        <f t="shared" ref="C20:L20" si="5">C26/C25</f>
         <v>0.08</v>
       </c>
-      <c r="D20" s="10">
-        <f t="shared" si="1"/>
+      <c r="D20" s="9">
+        <f t="shared" si="5"/>
         <v>0.08</v>
       </c>
-      <c r="E20" s="10" t="e">
-        <f t="shared" si="1"/>
+      <c r="E20" s="9" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="10" t="e">
-        <f t="shared" si="1"/>
+      <c r="F20" s="9" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="10" t="e">
-        <f t="shared" si="1"/>
+      <c r="G20" s="9" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="10" t="e">
-        <f t="shared" si="1"/>
+      <c r="H20" s="9" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="10" t="e">
-        <f t="shared" si="1"/>
+      <c r="I20" s="9" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" s="10" t="e">
-        <f t="shared" si="1"/>
+      <c r="J20" s="9" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="10" t="e">
-        <f t="shared" si="1"/>
+      <c r="K20" s="9" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="10" t="e">
-        <f t="shared" si="1"/>
+      <c r="L20" s="9" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="18">
+      <c r="B21" s="17">
         <v>0</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="18">
+        <v>27</v>
+      </c>
+      <c r="B22" s="17">
         <v>0</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="16"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="18">
+        <v>28</v>
+      </c>
+      <c r="B23" s="17">
         <v>0</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="16"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="18">
+      <c r="A24" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="17">
         <v>42</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="17">
         <f>B23-B22+B24</f>
         <v>42</v>
       </c>
-      <c r="D24" s="18">
-        <f t="shared" ref="D24:M24" si="2">C23-C22+C24</f>
+      <c r="D24" s="17">
+        <f t="shared" ref="D24:M24" si="6">C23-C22+C24</f>
         <v>42</v>
       </c>
-      <c r="E24" s="18">
-        <f t="shared" si="2"/>
+      <c r="E24" s="17">
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="F24" s="18">
-        <f t="shared" si="2"/>
+      <c r="F24" s="17">
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="G24" s="18">
-        <f t="shared" si="2"/>
+      <c r="G24" s="17">
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="H24" s="18">
-        <f t="shared" si="2"/>
+      <c r="H24" s="17">
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="I24" s="18">
-        <f t="shared" si="2"/>
+      <c r="I24" s="17">
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="J24" s="18">
-        <f t="shared" si="2"/>
+      <c r="J24" s="17">
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="K24" s="18">
-        <f t="shared" si="2"/>
+      <c r="K24" s="17">
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="L24" s="18">
-        <f t="shared" si="2"/>
+      <c r="L24" s="17">
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="M24" s="18">
-        <f t="shared" si="2"/>
+      <c r="M24" s="17">
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="22">
+      <c r="A25" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="21">
         <v>25</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="21">
         <v>25</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>25</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="20"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="22">
+      <c r="A26" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="21">
         <v>0</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="21">
         <v>2</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>2</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="20"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="21"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="20"/>
     </row>
     <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="K28" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="8" t="e">
+        <v>10</v>
+      </c>
+      <c r="B29" s="7" t="e">
         <f>B32/B33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C29" s="8" t="e">
-        <f t="shared" ref="C29:L29" si="3">C32/C33</f>
+      <c r="C29" s="7" t="e">
+        <f t="shared" ref="C29:L29" si="7">C32/C33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D29" s="8" t="e">
-        <f t="shared" si="3"/>
+      <c r="D29" s="7" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E29" s="8" t="e">
-        <f t="shared" si="3"/>
+      <c r="E29" s="7" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F29" s="8" t="e">
-        <f t="shared" si="3"/>
+      <c r="F29" s="7" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="8" t="e">
-        <f t="shared" si="3"/>
+      <c r="G29" s="7" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="8" t="e">
-        <f t="shared" si="3"/>
+      <c r="H29" s="7" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="8" t="e">
-        <f t="shared" si="3"/>
+      <c r="I29" s="7" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" s="8" t="e">
-        <f t="shared" si="3"/>
+      <c r="J29" s="7" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="8" t="e">
-        <f t="shared" si="3"/>
+      <c r="K29" s="7" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L29" s="8" t="e">
-        <f t="shared" si="3"/>
+      <c r="L29" s="7" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="8" t="e">
+        <v>11</v>
+      </c>
+      <c r="B30" s="7" t="e">
         <f>B35/B34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C30" s="8" t="e">
-        <f t="shared" ref="C30:L30" si="4">C35/C34</f>
+      <c r="C30" s="7" t="e">
+        <f t="shared" ref="C30:L30" si="8">C35/C34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D30" s="8" t="e">
-        <f t="shared" si="4"/>
+      <c r="D30" s="7" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="8" t="e">
-        <f t="shared" si="4"/>
+      <c r="E30" s="7" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="8" t="e">
-        <f t="shared" si="4"/>
+      <c r="F30" s="7" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="8" t="e">
-        <f t="shared" si="4"/>
+      <c r="G30" s="7" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="8" t="e">
-        <f t="shared" si="4"/>
+      <c r="H30" s="7" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="8" t="e">
-        <f t="shared" si="4"/>
+      <c r="I30" s="7" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="8" t="e">
-        <f t="shared" si="4"/>
+      <c r="J30" s="7" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="8" t="e">
-        <f t="shared" si="4"/>
+      <c r="K30" s="7" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="8" t="e">
-        <f t="shared" si="4"/>
+      <c r="L30" s="7" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="8" t="e">
+        <v>12</v>
+      </c>
+      <c r="B31" s="7" t="e">
         <f>B36/B34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C31" s="8" t="e">
-        <f t="shared" ref="C31:L31" si="5">C36/C34</f>
+      <c r="C31" s="7" t="e">
+        <f t="shared" ref="C31:L31" si="9">C36/C34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="8" t="e">
-        <f t="shared" si="5"/>
+      <c r="D31" s="7" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="8" t="e">
-        <f t="shared" si="5"/>
+      <c r="E31" s="7" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="8" t="e">
-        <f t="shared" si="5"/>
+      <c r="F31" s="7" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="8" t="e">
-        <f t="shared" si="5"/>
+      <c r="G31" s="7" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="8" t="e">
-        <f t="shared" si="5"/>
+      <c r="H31" s="7" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="8" t="e">
-        <f t="shared" si="5"/>
+      <c r="I31" s="7" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31" s="8" t="e">
-        <f t="shared" si="5"/>
+      <c r="J31" s="7" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="8" t="e">
-        <f t="shared" si="5"/>
+      <c r="K31" s="7" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L31" s="8" t="e">
-        <f t="shared" si="5"/>
+      <c r="L31" s="7" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -7846,22 +6962,22 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -7869,134 +6985,163 @@
     </row>
     <row r="38" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="K38" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N38" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="8" t="e">
+        <v>13</v>
+      </c>
+      <c r="B39" s="7">
         <f>B40/B41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C39" s="8" t="e">
-        <f t="shared" ref="C39:L39" si="6">C40/C41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D39" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E39" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F39" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G39" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J39" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K39" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L39" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="C39" s="7">
+        <f t="shared" ref="C39:L39" si="10">C40/C41</f>
+        <v>1</v>
+      </c>
+      <c r="D39" s="7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E39" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="B40" s="17">
+        <v>25</v>
+      </c>
+      <c r="C40" s="17">
+        <v>25</v>
+      </c>
+      <c r="D40" s="17">
+        <v>25</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="B41" s="17">
+        <v>25</v>
+      </c>
+      <c r="C41" s="17">
+        <v>25</v>
+      </c>
+      <c r="D41" s="17">
+        <v>25</v>
+      </c>
+      <c r="E41" s="17">
+        <v>25</v>
+      </c>
+      <c r="F41" s="17">
+        <v>25</v>
+      </c>
+      <c r="G41" s="17">
+        <v>25</v>
+      </c>
+      <c r="H41" s="17">
+        <v>25</v>
+      </c>
+      <c r="I41" s="17">
+        <v>25</v>
+      </c>
+      <c r="J41" s="17">
+        <v>25</v>
+      </c>
+      <c r="K41" s="17">
+        <v>25</v>
+      </c>
+      <c r="L41" s="17">
+        <v>25</v>
+      </c>
+      <c r="M41" s="17"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
@@ -8014,51 +7159,51 @@
     </row>
     <row r="43" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="K43" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N43" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
@@ -8074,47 +7219,47 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="2">
+      <c r="A45" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="16">
         <v>5</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="16">
         <v>5</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="16">
         <v>5</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="16">
         <v>5</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="16">
         <v>5</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="16">
         <v>5</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="16">
         <v>5</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="16">
         <v>5</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="16">
         <v>5</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="16">
         <v>5</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45" s="16">
         <v>5</v>
       </c>
     </row>
@@ -8123,14 +7268,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B18BC0-52A9-42FD-84FF-BCF023D30810}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>

--- a/DocEsterna/PianoDiQualifica/Images/Metriche processi.xlsx
+++ b/DocEsterna/PianoDiQualifica/Images/Metriche processi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zenma\Desktop\Desktop Marco\UNIPD\Ingegneria del Software\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFD4EB8-F362-46BE-8E7B-9C89F26075DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B8AFC7-7B6A-4817-A9EB-CB7B55727969}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="75">
   <si>
     <t>Incremento 1</t>
   </si>
@@ -190,21 +190,6 @@
     <t>Budget Variance (BCWS-ACWP)</t>
   </si>
   <si>
-    <t>Planned Value (BCWS)</t>
-  </si>
-  <si>
-    <t>Earned Value (BCWP)</t>
-  </si>
-  <si>
-    <t>AC(Soldi spesi fino al momento del calcolo) (ACWP)</t>
-  </si>
-  <si>
-    <t>ETC valore stimato per la realizzazione delle rimanenti attività</t>
-  </si>
-  <si>
-    <t>EAC: Budget totale stanziato (ACWP+ETC)</t>
-  </si>
-  <si>
     <t>Verifica e collaudo</t>
   </si>
   <si>
@@ -242,6 +227,39 @@
   </si>
   <si>
     <t>Valore accettabile</t>
+  </si>
+  <si>
+    <t>AC (Soldi spesi fino al momento del calcolo)</t>
+  </si>
+  <si>
+    <t>ETC (valore stimato per la realizzazione delle rimanenti attività)</t>
+  </si>
+  <si>
+    <t>Earned Value (Valore attuale)</t>
+  </si>
+  <si>
+    <t>Planned Value (Valore pianificato)</t>
+  </si>
+  <si>
+    <t>Valore accettabile superiore</t>
+  </si>
+  <si>
+    <t>Valore accettabile inferiore</t>
+  </si>
+  <si>
+    <t>EAC (Budget totale stanziato)</t>
+  </si>
+  <si>
+    <t>Valore accettabile RSI</t>
+  </si>
+  <si>
+    <t>Valore accettabile test falliti</t>
+  </si>
+  <si>
+    <t>Valore accettabile test passati</t>
+  </si>
+  <si>
+    <t>Valore accettabile Code Coverage</t>
   </si>
 </sst>
 </file>
@@ -292,18 +310,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -319,7 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -341,10 +353,6 @@
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -369,6 +377,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -457,7 +466,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi'!$A$11</c:f>
+              <c:f>'Metriche Processi'!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -468,7 +477,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi'!$B$10:$D$10</c:f>
+              <c:f>'Metriche Processi'!$B$11:$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -485,7 +494,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi'!$B$11:$D$11</c:f>
+              <c:f>'Metriche Processi'!$B$12:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="3"/>
@@ -513,18 +522,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi'!$A$12</c:f>
+              <c:f>'Metriche Processi'!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EAC: Budget totale stanziato (ACWP+ETC)</c:v>
+                  <c:v>EAC (Budget totale stanziato)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi'!$B$10:$D$10</c:f>
+              <c:f>'Metriche Processi'!$B$11:$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -541,7 +550,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi'!$B$12:$D$12</c:f>
+              <c:f>'Metriche Processi'!$B$13:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -569,18 +578,29 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi'!$A$11</c:f>
+              <c:f>'Metriche Processi'!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Budget at Completion (Budget totale)</c:v>
+                  <c:v>Valore accettabile inferiore</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi'!$B$10:$D$10</c:f>
+              <c:f>'Metriche Processi'!$B$11:$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -597,18 +617,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi'!$B$11:$D$11</c:f>
+              <c:f>'Metriche Processi'!$B$14:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13355</c:v>
+                  <c:v>12687.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13355</c:v>
+                  <c:v>12687.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13355</c:v>
+                  <c:v>12687.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -625,18 +645,29 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi'!$A$12</c:f>
+              <c:f>'Metriche Processi'!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EAC: Budget totale stanziato (ACWP+ETC)</c:v>
+                  <c:v>Valore accettabile superiore</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi'!$B$10:$D$10</c:f>
+              <c:f>'Metriche Processi'!$B$11:$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -653,18 +684,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi'!$B$12:$D$12</c:f>
+              <c:f>'Metriche Processi'!$B$15:$D$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13290</c:v>
+                  <c:v>14022.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13276</c:v>
+                  <c:v>14022.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13431</c:v>
+                  <c:v>14022.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -744,8 +775,8 @@
         <c:axId val="1946411568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="13500"/>
-          <c:min val="13200"/>
+          <c:max val="14100"/>
+          <c:min val="12500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -806,9 +837,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.7045395480884179"/>
-          <c:y val="0.60519525087064951"/>
-          <c:w val="0.29546045191158204"/>
-          <c:h val="0.20498789451872532"/>
+          <c:y val="0.53132636813750089"/>
+          <c:w val="0.28180309387551733"/>
+          <c:h val="0.35272565998502264"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -933,7 +964,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi'!$A$15</c:f>
+              <c:f>'Metriche Processi'!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -944,7 +975,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi'!$B$14:$D$14</c:f>
+              <c:f>'Metriche Processi'!$B$17:$D$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -961,7 +992,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi'!$B$15:$D$15</c:f>
+              <c:f>'Metriche Processi'!$B$18:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -989,7 +1020,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi'!$A$16</c:f>
+              <c:f>'Metriche Processi'!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1000,7 +1031,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi'!$B$14:$D$14</c:f>
+              <c:f>'Metriche Processi'!$B$17:$D$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1017,7 +1048,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi'!$B$16:$D$16</c:f>
+              <c:f>'Metriche Processi'!$B$19:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1037,6 +1068,70 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1F88-48D2-9462-203F8F8E9C67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Processi'!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valore accettabile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Processi'!$B$17:$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Processi'!$B$20:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97C4-43D3-AF83-0D9AF20FD97C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1169,10 +1264,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73868294317857974"/>
-          <c:y val="0.29494594339142516"/>
-          <c:w val="0.2408310197673231"/>
-          <c:h val="0.54340451210911644"/>
+          <c:x val="0.72274935880317082"/>
+          <c:y val="0.67537068946714085"/>
+          <c:w val="0.27725064119682907"/>
+          <c:h val="0.30748184177808796"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1302,7 +1397,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AC(Soldi spesi fino al momento del calcolo) (ACWP)</c:v>
+                  <c:v>AC (Soldi spesi fino al momento del calcolo)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1358,7 +1453,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ETC valore stimato per la realizzazione delle rimanenti attività</c:v>
+                  <c:v>ETC (valore stimato per la realizzazione delle rimanenti attività)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1402,6 +1497,75 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0633-483E-B3CA-E7B73FEEC93E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Processi'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EAC (Budget totale stanziato)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="4472C4">
+                  <a:alpha val="98000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Processi'!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Processi'!$B$13:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13290</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13276</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F831-4DF6-847B-2C353D2066B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1473,7 +1637,7 @@
         <c:axId val="1946411568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="13000"/>
+          <c:max val="14000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1535,9 +1699,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.69771086907038549"/>
-          <c:y val="0.48700503849761168"/>
-          <c:w val="0.3000129045902703"/>
-          <c:h val="0.36011254825833749"/>
+          <c:y val="0.50547225918089866"/>
+          <c:w val="0.3022891309296144"/>
+          <c:h val="0.42798176543721511"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1667,7 +1831,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Earned Value (BCWP)</c:v>
+                  <c:v>Earned Value (Valore attuale)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1723,7 +1887,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Planned Value (BCWS)</c:v>
+                  <c:v>Planned Value (Valore pianificato)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2041,7 +2205,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi'!$A$19</c:f>
+              <c:f>'Metriche Processi'!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2050,9 +2214,27 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="4472C4">
+                  <a:lumMod val="50000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4">
+                  <a:lumMod val="50000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi'!$B$18:$D$18</c:f>
+              <c:f>'Metriche Processi'!$B$22:$D$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2069,18 +2251,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi'!$B$19:$D$19</c:f>
+              <c:f>'Metriche Processi'!$B$23:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.80952380952380953</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2097,7 +2279,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi'!$A$20</c:f>
+              <c:f>'Metriche Processi'!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2108,7 +2290,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi'!$B$18:$D$18</c:f>
+              <c:f>'Metriche Processi'!$B$22:$D$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2125,7 +2307,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi'!$B$20:$D$20</c:f>
+              <c:f>'Metriche Processi'!$B$24:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2133,10 +2315,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.08</c:v>
+                  <c:v>5.128205128205128E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.08</c:v>
+                  <c:v>0.10256410256410256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2145,6 +2327,75 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9708-40C9-98F4-F4BE8349CA57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Processi'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valore accettabile RSI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="4472C4">
+                  <a:lumMod val="50000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Processi'!$B$22:$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Processi'!$B$25:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-679B-4780-9F12-A019002F00B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2279,8 +2530,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.67722483201628836"/>
           <c:y val="0.40574926749114804"/>
-          <c:w val="0.29546045191158204"/>
-          <c:h val="0.20498789451872532"/>
+          <c:w val="0.32272444577473247"/>
+          <c:h val="0.30748184177808796"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2414,7 +2665,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi'!$A$29</c:f>
+              <c:f>'Metriche Processi'!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2425,7 +2676,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi'!$B$28:$D$28</c:f>
+              <c:f>'Metriche Processi'!$B$33:$D$33</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2442,7 +2693,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi'!$B$29:$D$29</c:f>
+              <c:f>'Metriche Processi'!$B$34:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2470,18 +2721,31 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi'!$A$30</c:f>
+              <c:f>'Metriche Processi'!$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Passed test cases percentage</c:v>
+                  <c:v>Valore accettabile Code Coverage</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="4472C4">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi'!$B$28:$D$28</c:f>
+              <c:f>'Metriche Processi'!$B$33:$D$33</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2498,18 +2762,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi'!$B$30:$D$30</c:f>
+              <c:f>'Metriche Processi'!$B$35:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2526,18 +2790,18 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi'!$A$31</c:f>
+              <c:f>'Metriche Processi'!$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Failed test cases Percentage</c:v>
+                  <c:v>Passed test cases percentage</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi'!$B$28:$D$28</c:f>
+              <c:f>'Metriche Processi'!$B$33:$D$33</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2554,7 +2818,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi'!$B$31:$D$31</c:f>
+              <c:f>'Metriche Processi'!$B$36:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2574,6 +2838,214 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-C5EA-4078-BC19-C3DFCDB8D1C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Processi'!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valore accettabile test passati</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="E7E6E6">
+                  <a:lumMod val="50000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Processi'!$B$33:$D$33</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Processi'!$B$37:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-64C2-4FA2-B21E-BBD67D698A3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Processi'!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Failed test cases Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="70AD47"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="70AD47"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="70AD47"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Processi'!$B$33:$D$33</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Processi'!$B$38:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-64C2-4FA2-B21E-BBD67D698A3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Processi'!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valore accettabile test falliti</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Processi'!$B$33:$D$33</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Processi'!$B$39:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-64C2-4FA2-B21E-BBD67D698A3A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2706,10 +3178,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.6999870954097297"/>
-          <c:y val="0.39836237921783324"/>
-          <c:w val="0.28635554655420553"/>
-          <c:h val="0.36011254825833749"/>
+          <c:x val="0.6954346427310415"/>
+          <c:y val="0.29494594339142516"/>
+          <c:w val="0.30456535726895856"/>
+          <c:h val="0.61496368355617592"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2843,7 +3315,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi'!$A$39</c:f>
+              <c:f>'Metriche Processi'!$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2854,7 +3326,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi'!$B$38:$D$38</c:f>
+              <c:f>'Metriche Processi'!$B$46:$D$46</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2871,7 +3343,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi'!$B$39:$D$39</c:f>
+              <c:f>'Metriche Processi'!$B$47:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2891,6 +3363,73 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7745-483C-9AB3-522CCCFDB317}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Processi'!$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valore accettabile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Processi'!$B$46:$D$46</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Processi'!$B$48:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B7D1-46B7-A0AE-310E6B36894D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3116,7 +3655,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi'!$A$44</c:f>
+              <c:f>'Metriche Processi'!$A$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3127,7 +3666,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi'!$B$43:$D$43</c:f>
+              <c:f>'Metriche Processi'!$B$52:$D$52</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3144,7 +3683,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi'!$B$44:$D$44</c:f>
+              <c:f>'Metriche Processi'!$B$53:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3166,7 +3705,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Processi'!$A$45</c:f>
+              <c:f>'Metriche Processi'!$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3178,7 +3717,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
             </a:ln>
@@ -3193,7 +3732,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi'!$B$43:$D$43</c:f>
+              <c:f>'Metriche Processi'!$B$52:$D$52</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3210,7 +3749,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi'!$B$45:$D$45</c:f>
+              <c:f>'Metriche Processi'!$B$54:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5753,10 +6292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8B9997-03EC-43C2-97CE-34BB19C7C836}">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5771,53 +6310,53 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="13">
+        <v>52</v>
+      </c>
+      <c r="B1" s="11">
         <v>0.115</v>
       </c>
-      <c r="C1" s="13">
+      <c r="C1" s="11">
         <v>0.23</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="11">
         <v>0.31</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="11">
         <f>100/1100*4</f>
         <v>0.36363636363636365</v>
       </c>
-      <c r="F1" s="13">
+      <c r="F1" s="11">
         <f>100/1100*5</f>
         <v>0.45454545454545459</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="11">
         <f>100/1100*6</f>
         <v>0.54545454545454541</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="11">
         <f>100/1100*7</f>
         <v>0.63636363636363635</v>
       </c>
-      <c r="I1" s="13">
+      <c r="I1" s="11">
         <f>100/1100*8</f>
         <v>0.72727272727272729</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="11">
         <f>100/1100*9</f>
         <v>0.81818181818181823</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="11">
         <f>100/1100*10</f>
         <v>0.90909090909090917</v>
       </c>
-      <c r="L1" s="13">
+      <c r="L1" s="11">
         <f>100/1100*11</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>48</v>
@@ -5850,7 +6389,7 @@
         <v>47</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>15</v>
@@ -5859,9 +6398,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>53</v>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B3" s="5">
         <v>1683</v>
@@ -5885,9 +6424,9 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>54</v>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B4" s="5">
         <f>1673+1119+6210+2605</f>
@@ -5913,9 +6452,9 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -5929,7 +6468,7 @@
     </row>
     <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>48</v>
@@ -5962,7 +6501,7 @@
         <v>47</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>15</v>
@@ -5973,10 +6512,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" ref="B7:L7" si="0">B1*B12</f>
+        <f t="shared" ref="B7:L7" si="0">B1*B13</f>
         <v>1528.3500000000001</v>
       </c>
       <c r="C7" s="3">
@@ -6025,49 +6564,49 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="14">
+        <v>67</v>
+      </c>
+      <c r="B8" s="12">
         <f t="shared" ref="B8:L8" si="1">B1*13355</f>
         <v>1535.825</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <f t="shared" si="1"/>
         <v>3071.65</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <f t="shared" si="1"/>
         <v>4140.05</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <f t="shared" si="1"/>
         <v>4856.3636363636369</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <f t="shared" si="1"/>
         <v>6070.454545454546</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="12">
         <f t="shared" si="1"/>
         <v>7284.545454545454</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="12">
         <f t="shared" si="1"/>
         <v>8498.636363636364</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="12">
         <f t="shared" si="1"/>
         <v>9712.7272727272739</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="12">
         <f t="shared" si="1"/>
         <v>10926.818181818182</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="12">
         <f t="shared" si="1"/>
         <v>12140.909090909092</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="12">
         <f t="shared" si="1"/>
         <v>13355</v>
       </c>
@@ -6077,1194 +6616,1541 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="2" t="s">
+      <c r="L11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B12" s="13">
         <v>13355</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C12" s="13">
         <v>13355</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D12" s="13">
         <v>13355</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E12" s="13">
         <v>13355</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F12" s="13">
         <v>13355</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G12" s="13">
         <v>13355</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H12" s="13">
         <v>13355</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I12" s="13">
         <v>13355</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J12" s="13">
         <v>13355</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K12" s="13">
         <v>13355</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L12" s="13">
         <v>13355</v>
       </c>
-      <c r="M11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="N12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="2">
         <f>B3+B4</f>
         <v>13290</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2">
         <f>C3+C4</f>
         <v>13276</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <f>D3+D4</f>
         <v>13431</v>
       </c>
-      <c r="E12" s="2">
-        <f t="shared" ref="E12:L12" si="2">E3+E4</f>
+      <c r="E13" s="2">
+        <f t="shared" ref="E13:L13" si="2">E3+E4</f>
         <v>0</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H13" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I13" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J13" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K13" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L13" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>16</v>
-      </c>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="21">
+        <f>13355-(5*13355/100)</f>
+        <v>12687.25</v>
+      </c>
+      <c r="C14" s="21">
+        <f t="shared" ref="C14:L14" si="3">13355-(5*13355/100)</f>
+        <v>12687.25</v>
+      </c>
+      <c r="D14" s="21">
+        <f t="shared" si="3"/>
+        <v>12687.25</v>
+      </c>
+      <c r="E14" s="21">
+        <f t="shared" si="3"/>
+        <v>12687.25</v>
+      </c>
+      <c r="F14" s="21">
+        <f t="shared" si="3"/>
+        <v>12687.25</v>
+      </c>
+      <c r="G14" s="21">
+        <f t="shared" si="3"/>
+        <v>12687.25</v>
+      </c>
+      <c r="H14" s="21">
+        <f t="shared" si="3"/>
+        <v>12687.25</v>
+      </c>
+      <c r="I14" s="21">
+        <f t="shared" si="3"/>
+        <v>12687.25</v>
+      </c>
+      <c r="J14" s="21">
+        <f t="shared" si="3"/>
+        <v>12687.25</v>
+      </c>
+      <c r="K14" s="21">
+        <f t="shared" si="3"/>
+        <v>12687.25</v>
+      </c>
+      <c r="L14" s="21">
+        <f t="shared" si="3"/>
+        <v>12687.25</v>
+      </c>
+      <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="9">
-        <f t="shared" ref="B15:L15" si="3">B7/B8-1</f>
-        <v>-4.8670909771620918E-3</v>
-      </c>
-      <c r="C15" s="8">
-        <f t="shared" si="3"/>
-        <v>-5.9153874953201679E-3</v>
-      </c>
-      <c r="D15" s="9">
-        <f t="shared" si="3"/>
-        <v>5.6907525271432391E-3</v>
-      </c>
-      <c r="E15" s="9">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="F15" s="9">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="G15" s="9">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="H15" s="9">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="I15" s="9">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="J15" s="9">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="K15" s="9">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="L15" s="9">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="M15" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>17</v>
-      </c>
+      <c r="A15" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="21">
+        <f>13355+(5*13355/100)</f>
+        <v>14022.75</v>
+      </c>
+      <c r="C15" s="21">
+        <f t="shared" ref="C15:L15" si="4">13355+(5*13355/100)</f>
+        <v>14022.75</v>
+      </c>
+      <c r="D15" s="21">
+        <f t="shared" si="4"/>
+        <v>14022.75</v>
+      </c>
+      <c r="E15" s="21">
+        <f t="shared" si="4"/>
+        <v>14022.75</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" si="4"/>
+        <v>14022.75</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="4"/>
+        <v>14022.75</v>
+      </c>
+      <c r="H15" s="21">
+        <f t="shared" si="4"/>
+        <v>14022.75</v>
+      </c>
+      <c r="I15" s="21">
+        <f t="shared" si="4"/>
+        <v>14022.75</v>
+      </c>
+      <c r="J15" s="21">
+        <f t="shared" si="4"/>
+        <v>14022.75</v>
+      </c>
+      <c r="K15" s="21">
+        <f t="shared" si="4"/>
+        <v>14022.75</v>
+      </c>
+      <c r="L15" s="21">
+        <f t="shared" si="4"/>
+        <v>14022.75</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="9">
-        <f>B8/B3-1</f>
-        <v>-8.7448009506832958E-2</v>
-      </c>
-      <c r="C16" s="9">
-        <f>C8/C3-1</f>
-        <v>-8.0894673847995202E-2</v>
-      </c>
-      <c r="D16" s="9">
-        <f>D8/D3-1</f>
-        <v>-8.5273972602739723E-2</v>
-      </c>
-      <c r="E16" s="9" t="e">
-        <f>1-E8/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F16" s="9" t="e">
-        <f>1-F8/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G16" s="9" t="e">
-        <f>1-G8/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H16" s="9" t="e">
-        <f>1-H8/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I16" s="9" t="e">
-        <f>1-I8/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J16" s="9" t="e">
-        <f>1-J8/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K16" s="9" t="e">
-        <f>1-K8/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L16" s="9" t="e">
-        <f>1-L8/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M16" s="10">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="9">
+        <f t="shared" ref="B18:L18" si="5">B7/B8-1</f>
+        <v>-4.8670909771620918E-3</v>
+      </c>
+      <c r="C18" s="8">
+        <f t="shared" si="5"/>
+        <v>-5.9153874953201679E-3</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" si="5"/>
+        <v>5.6907525271432391E-3</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="K18" s="9">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L18" s="9">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="M18" s="9">
         <v>-0.1</v>
       </c>
-      <c r="N16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>16</v>
+      <c r="N18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B19" s="9">
-        <f>(1-(B21+B22+B23)/B24)</f>
-        <v>1</v>
+        <f>B8/B3-1</f>
+        <v>-8.7448009506832958E-2</v>
       </c>
       <c r="C19" s="9">
-        <f t="shared" ref="C19:L19" si="4">(1-(C21+C22+C23)/C24)</f>
-        <v>1</v>
+        <f>C8/C3-1</f>
+        <v>-8.0894673847995202E-2</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E19" s="9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F19" s="9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G19" s="9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H19" s="9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I19" s="9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J19" s="9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K19" s="9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L19" s="9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M19" t="s">
-        <v>24</v>
+        <f>D8/D3-1</f>
+        <v>-8.5273972602739723E-2</v>
+      </c>
+      <c r="E19" s="9" t="e">
+        <f>1-E8/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F19" s="9" t="e">
+        <f>1-F8/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G19" s="9" t="e">
+        <f>1-G8/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H19" s="9" t="e">
+        <f>1-H8/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I19" s="9" t="e">
+        <f>1-I8/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J19" s="9" t="e">
+        <f>1-J8/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K19" s="9" t="e">
+        <f>1-K8/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L19" s="9" t="e">
+        <f>1-L8/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M19" s="9">
+        <v>-0.1</v>
       </c>
       <c r="N19" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>9</v>
+      <c r="A20" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="B20" s="9">
-        <f>B26/B25</f>
+        <v>-0.1</v>
+      </c>
+      <c r="C20" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="D20" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="E20" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="J20" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="K20" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="L20" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="9">
-        <f t="shared" ref="C20:L20" si="5">C26/C25</f>
-        <v>0.08</v>
-      </c>
-      <c r="D20" s="9">
-        <f t="shared" si="5"/>
-        <v>0.08</v>
-      </c>
-      <c r="E20" s="9" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="9" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="9" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="9" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="9" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="9" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="9" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="9" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="17">
-        <v>0</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="17">
-        <v>0</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="16"/>
+      <c r="D22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="17">
-        <v>0</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="16"/>
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="9">
+        <f>(1-(B26+B27+B28)/B29)</f>
+        <v>0.80952380952380953</v>
+      </c>
+      <c r="C23" s="9">
+        <f t="shared" ref="C23:L23" si="6">(1-(C26+C27+C28)/C29)</f>
+        <v>0.8</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="17">
-        <v>42</v>
-      </c>
-      <c r="C24" s="17">
-        <f>B23-B22+B24</f>
-        <v>42</v>
-      </c>
-      <c r="D24" s="17">
-        <f t="shared" ref="D24:M24" si="6">C23-C22+C24</f>
-        <v>42</v>
-      </c>
-      <c r="E24" s="17">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="F24" s="17">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="G24" s="17">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="H24" s="17">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="I24" s="17">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="J24" s="17">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="K24" s="17">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="L24" s="17">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="M24" s="17">
-        <f t="shared" si="6"/>
-        <v>42</v>
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="9">
+        <f>B31/B30</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="9">
+        <f t="shared" ref="C24:L24" si="7">C31/C30</f>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="7"/>
+        <v>0.10256410256410256</v>
+      </c>
+      <c r="E24" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="21">
-        <v>25</v>
-      </c>
-      <c r="C25" s="21">
-        <v>25</v>
-      </c>
-      <c r="D25" s="21">
-        <v>25</v>
-      </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="20"/>
+      <c r="A25" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="21">
+    <row r="26" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="15">
         <v>0</v>
       </c>
-      <c r="C26" s="21">
-        <v>2</v>
-      </c>
-      <c r="D26" s="21">
-        <v>2</v>
-      </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="20"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="20"/>
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="15">
+        <v>0</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="14"/>
     </row>
-    <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I28" s="2" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="15">
+        <v>8</v>
+      </c>
+      <c r="C28" s="15">
+        <v>10</v>
+      </c>
+      <c r="D28" s="15">
         <v>6</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="14"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="7" t="e">
-        <f>B32/B33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C29" s="7" t="e">
-        <f t="shared" ref="C29:L29" si="7">C32/C33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E29" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L29" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N29" t="s">
-        <v>31</v>
+      <c r="A29" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="15">
+        <v>42</v>
+      </c>
+      <c r="C29" s="15">
+        <f>B28-B27+B29</f>
+        <v>50</v>
+      </c>
+      <c r="D29" s="15">
+        <f t="shared" ref="D29:M29" si="8">C28-C27+C29</f>
+        <v>60</v>
+      </c>
+      <c r="E29" s="15">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="G29" s="15">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="H29" s="15">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="I29" s="15">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="K29" s="15">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="L29" s="15">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="M29" s="15">
+        <f t="shared" si="8"/>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="7" t="e">
-        <f>B35/B34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C30" s="7" t="e">
-        <f t="shared" ref="C30:L30" si="8">C35/C34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D30" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E30" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J30" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K30" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L30" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M30" t="s">
-        <v>35</v>
-      </c>
-      <c r="N30" t="s">
-        <v>45</v>
-      </c>
+      <c r="A30" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="19">
+        <v>25</v>
+      </c>
+      <c r="C30" s="19">
+        <v>39</v>
+      </c>
+      <c r="D30" s="19">
+        <v>39</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="18"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="7" t="e">
-        <f>B36/B34</f>
+      <c r="A31" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="19">
+        <v>0</v>
+      </c>
+      <c r="C31" s="19">
+        <v>2</v>
+      </c>
+      <c r="D31" s="19">
+        <v>4</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="18"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="18"/>
+    </row>
+    <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="7" t="e">
+        <f>B40/B41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C31" s="7" t="e">
-        <f t="shared" ref="C31:L31" si="9">C36/C34</f>
+      <c r="C34" s="7" t="e">
+        <f t="shared" ref="C34:L34" si="9">C40/C41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="7" t="e">
+      <c r="D34" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="7" t="e">
+      <c r="E34" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="7" t="e">
+      <c r="F34" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="7" t="e">
+      <c r="G34" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="7" t="e">
+      <c r="H34" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="7" t="e">
+      <c r="I34" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31" s="7" t="e">
+      <c r="J34" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="7" t="e">
+      <c r="K34" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L31" s="7" t="e">
+      <c r="L34" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M31" t="s">
-        <v>36</v>
-      </c>
-      <c r="N31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>38</v>
+      <c r="M34" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>39</v>
+      <c r="A35" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0.75</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>40</v>
+      <c r="A36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="7" t="e">
+        <f>B43/B42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C36" s="7" t="e">
+        <f t="shared" ref="C36:L36" si="10">C43/C42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D36" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F36" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" t="s">
+        <v>35</v>
+      </c>
+      <c r="N36" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="A37" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="38" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>16</v>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="7" t="e">
+        <f>B44/B42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C38" s="7" t="e">
+        <f t="shared" ref="C38:L38" si="11">C44/C42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" t="s">
+        <v>36</v>
+      </c>
+      <c r="N38" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>13</v>
+      <c r="A39" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="B39" s="7">
-        <f>B40/B41</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C39" s="7">
-        <f t="shared" ref="C39:L39" si="10">C40/C41</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D39" s="7">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E39" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G39" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H39" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I39" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J39" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K39" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L39" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M39" t="s">
-        <v>35</v>
-      </c>
-      <c r="N39" t="s">
-        <v>44</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="17">
-        <v>25</v>
-      </c>
-      <c r="C40" s="17">
-        <v>25</v>
-      </c>
-      <c r="D40" s="17">
-        <v>25</v>
-      </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
+        <v>32</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="17">
-        <v>25</v>
-      </c>
-      <c r="C41" s="17">
-        <v>25</v>
-      </c>
-      <c r="D41" s="17">
-        <v>25</v>
-      </c>
-      <c r="E41" s="17">
-        <v>25</v>
-      </c>
-      <c r="F41" s="17">
-        <v>25</v>
-      </c>
-      <c r="G41" s="17">
-        <v>25</v>
-      </c>
-      <c r="H41" s="17">
-        <v>25</v>
-      </c>
-      <c r="I41" s="17">
-        <v>25</v>
-      </c>
-      <c r="J41" s="17">
-        <v>25</v>
-      </c>
-      <c r="K41" s="17">
-        <v>25</v>
-      </c>
-      <c r="L41" s="17">
-        <v>25</v>
-      </c>
-      <c r="M41" s="17"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="43" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>16</v>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="2">
-        <v>1</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" t="s">
-        <v>37</v>
-      </c>
-      <c r="N44" t="s">
-        <v>43</v>
+      <c r="A44" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="16">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="16">
-        <v>5</v>
-      </c>
-      <c r="D45" s="16">
-        <v>5</v>
-      </c>
-      <c r="E45" s="16">
-        <v>5</v>
-      </c>
-      <c r="F45" s="16">
-        <v>5</v>
-      </c>
-      <c r="G45" s="16">
-        <v>5</v>
-      </c>
-      <c r="H45" s="16">
-        <v>5</v>
-      </c>
-      <c r="I45" s="16">
-        <v>5</v>
-      </c>
-      <c r="J45" s="16">
-        <v>5</v>
-      </c>
-      <c r="K45" s="16">
-        <v>5</v>
-      </c>
-      <c r="L45" s="16">
-        <v>5</v>
+      <c r="I46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="7">
+        <f>B49/B50</f>
+        <v>1</v>
+      </c>
+      <c r="C47" s="7">
+        <f t="shared" ref="C47:L47" si="12">C49/C50</f>
+        <v>1</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E47" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>35</v>
+      </c>
+      <c r="N47" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
+      <c r="A48" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="J48" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K48" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="L48" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="15">
+        <v>25</v>
+      </c>
+      <c r="C49" s="15">
+        <v>25</v>
+      </c>
+      <c r="D49" s="15">
+        <v>25</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="15">
+        <v>25</v>
+      </c>
+      <c r="C50" s="15">
+        <v>25</v>
+      </c>
+      <c r="D50" s="15">
+        <v>25</v>
+      </c>
+      <c r="E50" s="15">
+        <v>25</v>
+      </c>
+      <c r="F50" s="15">
+        <v>25</v>
+      </c>
+      <c r="G50" s="15">
+        <v>25</v>
+      </c>
+      <c r="H50" s="15">
+        <v>25</v>
+      </c>
+      <c r="I50" s="15">
+        <v>25</v>
+      </c>
+      <c r="J50" s="15">
+        <v>25</v>
+      </c>
+      <c r="K50" s="15">
+        <v>25</v>
+      </c>
+      <c r="L50" s="15">
+        <v>25</v>
+      </c>
+      <c r="M50" s="15"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" t="s">
+        <v>37</v>
+      </c>
+      <c r="N53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="14">
+        <v>5</v>
+      </c>
+      <c r="C54" s="14">
+        <v>5</v>
+      </c>
+      <c r="D54" s="14">
+        <v>5</v>
+      </c>
+      <c r="E54" s="14">
+        <v>5</v>
+      </c>
+      <c r="F54" s="14">
+        <v>5</v>
+      </c>
+      <c r="G54" s="14">
+        <v>5</v>
+      </c>
+      <c r="H54" s="14">
+        <v>5</v>
+      </c>
+      <c r="I54" s="14">
+        <v>5</v>
+      </c>
+      <c r="J54" s="14">
+        <v>5</v>
+      </c>
+      <c r="K54" s="14">
+        <v>5</v>
+      </c>
+      <c r="L54" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7276,7 +8162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B18BC0-52A9-42FD-84FF-BCF023D30810}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>

--- a/DocEsterna/PianoDiQualifica/Images/Metriche processi.xlsx
+++ b/DocEsterna/PianoDiQualifica/Images/Metriche processi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zenma\Desktop\Desktop Marco\UNIPD\Ingegneria del Software\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B8AFC7-7B6A-4817-A9EB-CB7B55727969}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1580F19D-578B-4F2D-A2AC-EEB327F1781F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="77">
   <si>
     <t>Incremento 1</t>
   </si>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t>Valore accettabile Code Coverage</t>
+  </si>
+  <si>
+    <t>Fase di Analisi</t>
+  </si>
+  <si>
+    <t>Fase di Progettazione Architetturale</t>
   </si>
 </sst>
 </file>
@@ -3666,29 +3672,29 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi'!$B$52:$D$52</c:f>
+              <c:f>'Metriche Processi'!$B$52:$C$52</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Fase di Analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Fase di Progettazione Architetturale</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi'!$B$53:$D$53</c:f>
+              <c:f>'Metriche Processi'!$B$53:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3732,34 +3738,28 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi'!$B$52:$D$52</c:f>
+              <c:f>'Metriche Processi'!$B$52:$C$52</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Fase di Analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Fase di Progettazione Architetturale</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi'!$B$54:$D$54</c:f>
+              <c:f>'Metriche Processi'!$B$54:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -6294,8 +6294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8B9997-03EC-43C2-97CE-34BB19C7C836}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8048,38 +8048,20 @@
         <v>57</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
       <c r="M52" s="2" t="s">
         <v>15</v>
       </c>
@@ -8092,9 +8074,11 @@
         <v>14</v>
       </c>
       <c r="B53" s="2">
-        <v>1</v>
-      </c>
-      <c r="C53" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="C53" s="3">
+        <v>5</v>
+      </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -8162,7 +8146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B18BC0-52A9-42FD-84FF-BCF023D30810}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>

--- a/DocEsterna/PianoDiQualifica/Images/Metriche processi.xlsx
+++ b/DocEsterna/PianoDiQualifica/Images/Metriche processi.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zenma\Desktop\Desktop Marco\UNIPD\Ingegneria del Software\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\SWE\RepoDocumentazione\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1580F19D-578B-4F2D-A2AC-EEB327F1781F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBFEC42-69DD-450E-99DD-74248DAEAF03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
+    <workbookView xWindow="11190" yWindow="690" windowWidth="16890" windowHeight="11505" activeTab="1" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Metriche Processi" sheetId="4" r:id="rId1"/>
     <sheet name="Grafici" sheetId="5" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="77">
-  <si>
-    <t>Incremento 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="79">
   <si>
     <t>Incremento 2</t>
   </si>
@@ -181,9 +181,6 @@
     <t>Incremento 9</t>
   </si>
   <si>
-    <t>Programmazione TB</t>
-  </si>
-  <si>
     <t>Schedule Variance (BCWP-BCWS)</t>
   </si>
   <si>
@@ -262,19 +259,32 @@
     <t>Valore accettabile Code Coverage</t>
   </si>
   <si>
-    <t>Fase di Analisi</t>
+    <t>Fase di Progettazione Architetturale</t>
   </si>
   <si>
-    <t>Fase di Progettazione Architetturale</t>
+    <t>Technology Baseline</t>
+  </si>
+  <si>
+    <t>Incremento I</t>
+  </si>
+  <si>
+    <t>Incremento II</t>
+  </si>
+  <si>
+    <t>Analisi</t>
+  </si>
+  <si>
+    <t>TB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="167" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -337,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -384,6 +394,14 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -416,42 +434,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Metriche Budget</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -459,9 +442,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.10053291633872259"/>
-          <c:y val="0.17007582518514358"/>
-          <c:w val="0.72315606154080492"/>
-          <c:h val="0.71531223417017475"/>
+          <c:y val="0.17466474016570471"/>
+          <c:w val="0.35824212219488616"/>
+          <c:h val="0.67376113051198816"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -481,19 +464,38 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Processi'!$B$11:$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -537,19 +539,44 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Processi'!$B$11:$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -572,7 +599,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-2F73-4BF1-B224-07F9C0B6C768}"/>
@@ -596,7 +623,9 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:prstDash val="dash"/>
             </a:ln>
@@ -610,13 +639,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -663,7 +692,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
             </a:ln>
@@ -677,13 +706,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -833,7 +862,8 @@
         </c:txPr>
         <c:crossAx val="1946422384"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="500"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -842,10 +872,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.7045395480884179"/>
-          <c:y val="0.53132636813750089"/>
-          <c:w val="0.28180309387551733"/>
-          <c:h val="0.35272565998502264"/>
+          <c:x val="0.4947580316050551"/>
+          <c:y val="0.17894785026346308"/>
+          <c:w val="0.22362844599317838"/>
+          <c:h val="0.6777487440108767"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -882,6 +912,11 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -914,42 +949,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Variazioni Budget</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -958,7 +958,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.10053285203991102"/>
           <c:y val="0.16638238779709322"/>
-          <c:w val="0.72315606154080492"/>
+          <c:w val="0.47300000378124718"/>
           <c:h val="0.71531223417017475"/>
         </c:manualLayout>
       </c:layout>
@@ -985,13 +985,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1014,7 +1014,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1F88-48D2-9462-203F8F8E9C67}"/>
@@ -1041,13 +1041,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1070,7 +1070,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1F88-48D2-9462-203F8F8E9C67}"/>
@@ -1093,6 +1093,9 @@
           </c:tx>
           <c:spPr>
             <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
               <a:prstDash val="dash"/>
             </a:ln>
           </c:spPr>
@@ -1105,13 +1108,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1164,7 +1167,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1179,16 +1182,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1261,7 +1261,7 @@
         </c:txPr>
         <c:crossAx val="1946422384"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1270,10 +1270,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.72274935880317082"/>
-          <c:y val="0.67537068946714085"/>
-          <c:w val="0.27725064119682907"/>
-          <c:h val="0.30748184177808796"/>
+          <c:x val="0.63554922384257317"/>
+          <c:y val="0.1730620941438874"/>
+          <c:w val="0.19481637951140457"/>
+          <c:h val="0.74700169404032257"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1310,6 +1310,11 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1343,51 +1348,16 @@
   </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Metriche Costo</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10053291633872259"/>
-          <c:y val="0.17007582518514358"/>
-          <c:w val="0.72315606154080492"/>
+          <c:x val="8.3506358899019792E-2"/>
+          <c:y val="0.15899549952377837"/>
+          <c:w val="0.43856444963336416"/>
           <c:h val="0.71531223417017475"/>
         </c:manualLayout>
       </c:layout>
@@ -1408,19 +1378,40 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Processi'!$B$2:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1429,7 +1420,7 @@
             <c:numRef>
               <c:f>'Metriche Processi'!$B$3:$D$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"€"\ #,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1683</c:v>
@@ -1443,7 +1434,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0633-483E-B3CA-E7B73FEEC93E}"/>
@@ -1464,19 +1455,41 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="ED7D31">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="ED7D31">
+                    <a:lumMod val="75000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Processi'!$B$2:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1485,7 +1498,7 @@
             <c:numRef>
               <c:f>'Metriche Processi'!$B$4:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"€"\ #,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>11607</c:v>
@@ -1499,7 +1512,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0633-483E-B3CA-E7B73FEEC93E}"/>
@@ -1539,13 +1552,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1619,10 +1632,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1662,7 +1672,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;€&quot;\ #,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1695,7 +1705,7 @@
         </c:txPr>
         <c:crossAx val="1946422384"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1704,10 +1714,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.69771086907038549"/>
-          <c:y val="0.50547225918089866"/>
-          <c:w val="0.3022891309296144"/>
-          <c:h val="0.42798176543721511"/>
+          <c:x val="0.55956015998973918"/>
+          <c:y val="0.13692748679803562"/>
+          <c:w val="0.36266859230640164"/>
+          <c:h val="0.83177512482791216"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1744,6 +1754,11 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1777,42 +1792,7 @@
   </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Earned Value e Planned Value</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1821,7 +1801,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.10053291633872259"/>
           <c:y val="0.17007582518514358"/>
-          <c:w val="0.72315606154080492"/>
+          <c:w val="0.36970398871115234"/>
           <c:h val="0.71531223417017475"/>
         </c:manualLayout>
       </c:layout>
@@ -1842,19 +1822,26 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Processi'!$B$6:$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1863,7 +1850,7 @@
             <c:numRef>
               <c:f>'Metriche Processi'!$B$7:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"€"\ #,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1528.3500000000001</c:v>
@@ -1898,19 +1885,52 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="5B9BD5">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:srgbClr val="4472C4"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="x"/>
+              <c:size val="5"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-13A6-4403-8F56-E1F1808A1BE0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Processi'!$B$6:$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1919,7 +1939,7 @@
             <c:numRef>
               <c:f>'Metriche Processi'!$B$8:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>"€"\ #,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1535.825</c:v>
@@ -1933,7 +1953,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D0A2-4DB1-BB80-3EB3590F64B7}"/>
@@ -1984,10 +2004,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2027,7 +2044,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;€&quot;\ #,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2060,7 +2077,7 @@
         </c:txPr>
         <c:crossAx val="1946422384"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2069,10 +2086,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.67722483201628836"/>
-          <c:y val="0.40574926749114804"/>
-          <c:w val="0.29546045191158204"/>
-          <c:h val="0.20498789451872532"/>
+          <c:x val="0.4805653376969129"/>
+          <c:y val="0.25252253163478788"/>
+          <c:w val="0.1961178256580281"/>
+          <c:h val="0.55330682670623887"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2109,6 +2126,11 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -2142,55 +2164,7 @@
   </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Stabilità dei requisiti e requisiti obbligatori</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> soddisfatti</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12525750930653959"/>
-          <c:y val="3.3240997229916899E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2199,7 +2173,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.10053291633872259"/>
           <c:y val="0.17007582518514358"/>
-          <c:w val="0.72315606154080492"/>
+          <c:w val="0.40930723308225808"/>
           <c:h val="0.71531223417017475"/>
         </c:manualLayout>
       </c:layout>
@@ -2230,12 +2204,17 @@
             </a:ln>
           </c:spPr>
           <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4472C4">
-                  <a:lumMod val="50000"/>
-                </a:srgbClr>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
             </c:spPr>
           </c:marker>
           <c:cat>
@@ -2244,13 +2223,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2273,7 +2252,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9708-40C9-98F4-F4BE8349CA57}"/>
@@ -2294,19 +2273,41 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="70AD47">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:srgbClr val="70AD47">
+                    <a:lumMod val="75000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Processi'!$B$22:$D$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2353,8 +2354,8 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="4472C4">
-                  <a:lumMod val="50000"/>
+                <a:srgbClr val="ED7D31">
+                  <a:lumMod val="75000"/>
                 </a:srgbClr>
               </a:solidFill>
               <a:prstDash val="dash"/>
@@ -2369,13 +2370,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2449,10 +2450,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2525,7 +2523,8 @@
         </c:txPr>
         <c:crossAx val="1946422384"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2534,10 +2533,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.67722483201628836"/>
-          <c:y val="0.40574926749114804"/>
-          <c:w val="0.32272444577473247"/>
-          <c:h val="0.30748184177808796"/>
+          <c:x val="0.54637898345724356"/>
+          <c:y val="0.17887724789664661"/>
+          <c:w val="0.20351509841841592"/>
+          <c:h val="0.63250492580394213"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2574,6 +2573,11 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -2686,10 +2690,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Incremento 2</c:v>
@@ -2755,10 +2759,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Incremento 2</c:v>
@@ -2811,10 +2815,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Incremento 2</c:v>
@@ -2880,10 +2884,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Incremento 2</c:v>
@@ -2955,10 +2959,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Incremento 2</c:v>
@@ -3019,10 +3023,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Incremento 2</c:v>
@@ -3224,6 +3228,11 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -3257,50 +3266,7 @@
   </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Metriche soddisfatte</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.362470404576828"/>
-          <c:y val="2.2160664819944598E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -3308,9 +3274,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.10053291633872259"/>
-          <c:y val="0.17007582518514358"/>
-          <c:w val="0.72315606154080492"/>
-          <c:h val="0.71531223417017475"/>
+          <c:y val="0.39393794410446831"/>
+          <c:w val="0.50406942720522363"/>
+          <c:h val="0.48966482120994348"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3332,27 +3298,30 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi'!$B$46:$D$46</c:f>
+              <c:f>'Metriche Processi'!$B$46:$E$46</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>TB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento I</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi'!$B$47:$D$47</c:f>
+              <c:f>'Metriche Processi'!$B$47:$E$47</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3360,6 +3329,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3389,7 +3361,9 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="4472C4"/>
+                <a:srgbClr val="ED7D31">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
               </a:solidFill>
               <a:prstDash val="dash"/>
             </a:ln>
@@ -3399,27 +3373,30 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi'!$B$46:$D$46</c:f>
+              <c:f>'Metriche Processi'!$B$46:$E$46</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>TB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento I</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi'!$B$48:$D$48</c:f>
+              <c:f>'Metriche Processi'!$B$48:$E$48</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.9</c:v>
                 </c:pt>
@@ -3427,6 +3404,9 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
@@ -3483,10 +3463,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3559,14 +3536,34 @@
         </c:txPr>
         <c:crossAx val="1946422384"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.64727284791056494"/>
+          <c:y val="0.40459116326223299"/>
+          <c:w val="0.28078806926810596"/>
+          <c:h val="0.52632633913125382"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -3600,47 +3597,7 @@
   </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Rischi</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> non calcolati</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -3649,7 +3606,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.10053291633872259"/>
           <c:y val="0.17007582518514358"/>
-          <c:w val="0.72315606154080492"/>
+          <c:w val="0.58666123533441894"/>
           <c:h val="0.71531223417017475"/>
         </c:manualLayout>
       </c:layout>
@@ -3670,36 +3627,71 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="ED7D31">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi'!$B$52:$C$52</c:f>
+              <c:f>'Metriche Processi'!$B$52:$E$52</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Fase di Analisi</c:v>
+                  <c:v>Analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Fase di Progettazione Architetturale</c:v>
+                  <c:v>TB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento I</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi'!$B$53:$C$53</c:f>
+              <c:f>'Metriche Processi'!$B$53:$E$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6A2A-4D57-AEA3-CEAF907724BF}"/>
@@ -3723,7 +3715,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="A5A5A5"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
             </a:ln>
@@ -3738,28 +3730,40 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Processi'!$B$52:$C$52</c:f>
+              <c:f>'Metriche Processi'!$B$52:$E$52</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Fase di Analisi</c:v>
+                  <c:v>Analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Fase di Progettazione Architetturale</c:v>
+                  <c:v>TB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento I</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Processi'!$B$54:$C$54</c:f>
+              <c:f>'Metriche Processi'!$B$54:$E$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -3892,17 +3896,12 @@
         </c:txPr>
         <c:crossAx val="1946422384"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000">
-              <a:lumMod val="15000"/>
-              <a:lumOff val="85000"/>
-              <a:alpha val="99000"/>
-            </a:sysClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
@@ -3912,10 +3911,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.67722483201628836"/>
-          <c:y val="0.40574926749114804"/>
-          <c:w val="0.24913386899331649"/>
-          <c:h val="0.12465461207930728"/>
+          <c:x val="0.69271239363209336"/>
+          <c:y val="0.30086287534459383"/>
+          <c:w val="0.18377021649944278"/>
+          <c:h val="0.45800178838538474"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3952,6 +3951,11 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -3974,16 +3978,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>403412</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>34836</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>536763</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>188820</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>496957</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>18388</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4012,16 +4016,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>315446</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>108697</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>575325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>448797</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>118222</xdr:rowOff>
+      <xdr:rowOff>190125</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4051,15 +4055,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>89646</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:colOff>347649</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>222997</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>132790</xdr:rowOff>
+      <xdr:colOff>523047</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161777</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4089,15 +4093,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:colOff>130572</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>148589</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>189380</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>492177</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>188819</xdr:rowOff>
+      <xdr:rowOff>52691</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4126,16 +4130,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>521075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>222998</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>43142</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>597080</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>172873</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4164,14 +4168,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>403411</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>5845</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>56031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>536762</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>139197</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>65556</xdr:rowOff>
     </xdr:to>
@@ -4202,16 +4206,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>168089</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>120829</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>7326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>301440</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>65554</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>254180</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4240,16 +4244,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>425822</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>87601</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>559173</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>31936</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>559806</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>7108</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4277,6 +4281,54 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Foglio1"/>
+      <sheetName val="Metriche Software"/>
+      <sheetName val="Metriche Documenti"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Incremento I</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Incremento II</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>% Copertura requisiti obbligatori</v>
+          </cell>
+          <cell r="B2">
+            <v>9.0909090909090935</v>
+          </cell>
+          <cell r="C2">
+            <v>18.181818181818176</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>% Copertura requisiti totali</v>
+          </cell>
+          <cell r="B3">
+            <v>6.8181818181818237</v>
+          </cell>
+          <cell r="C3">
+            <v>13.636363636363635</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6292,10 +6344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8B9997-03EC-43C2-97CE-34BB19C7C836}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6310,7 +6362,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="11">
         <v>0.115</v>
@@ -6356,60 +6408,60 @@
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="5">
+        <v>62</v>
+      </c>
+      <c r="B3" s="24">
         <v>1683</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="25">
         <f>B3+1659</f>
         <v>3342</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="25">
         <f>C3+1184</f>
         <v>4526</v>
       </c>
@@ -6426,17 +6478,17 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="5">
+        <v>63</v>
+      </c>
+      <c r="B4" s="24">
         <f>1673+1119+6210+2605</f>
         <v>11607</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="24">
         <f>1119+6210+2605</f>
         <v>9934</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="25">
         <f>6300+2605</f>
         <v>8905</v>
       </c>
@@ -6468,150 +6520,150 @@
     </row>
     <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="3">
+        <v>64</v>
+      </c>
+      <c r="B7" s="23">
         <f t="shared" ref="B7:L7" si="0">B1*B13</f>
         <v>1528.3500000000001</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="23">
         <f t="shared" si="0"/>
         <v>3053.48</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="23">
         <f t="shared" si="0"/>
         <v>4163.6099999999997</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="12">
+        <v>65</v>
+      </c>
+      <c r="B8" s="23">
         <f t="shared" ref="B8:L8" si="1">B1*13355</f>
         <v>1535.825</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="23">
         <f t="shared" si="1"/>
         <v>3071.65</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="23">
         <f t="shared" si="1"/>
         <v>4140.05</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="23">
         <f t="shared" si="1"/>
         <v>4856.3636363636369</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="23">
         <f t="shared" si="1"/>
         <v>6070.454545454546</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="23">
         <f t="shared" si="1"/>
         <v>7284.545454545454</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="23">
         <f t="shared" si="1"/>
         <v>8498.636363636364</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="23">
         <f t="shared" si="1"/>
         <v>9712.7272727272739</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="23">
         <f t="shared" si="1"/>
         <v>10926.818181818182</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="23">
         <f t="shared" si="1"/>
         <v>12140.909090909092</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="23">
         <f t="shared" si="1"/>
         <v>13355</v>
       </c>
       <c r="N8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -6644,51 +6696,51 @@
     </row>
     <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="K11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="13">
         <v>13355</v>
@@ -6724,12 +6776,12 @@
         <v>13355</v>
       </c>
       <c r="N12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2">
         <f>B3+B4</f>
@@ -6776,13 +6828,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B14" s="21">
         <f>13355-(5*13355/100)</f>
@@ -6832,7 +6884,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="21">
         <f>13355+(5*13355/100)</f>
@@ -6899,51 +6951,51 @@
     </row>
     <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="K17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" s="9">
         <f t="shared" ref="B18:L18" si="5">B7/B8-1</f>
@@ -6993,12 +7045,12 @@
         <v>-0.1</v>
       </c>
       <c r="N18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" s="9">
         <f>B8/B3-1</f>
@@ -7048,12 +7100,12 @@
         <v>-0.1</v>
       </c>
       <c r="N19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" s="9">
         <v>-0.1</v>
@@ -7106,51 +7158,51 @@
     </row>
     <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="K22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="9">
         <f>(1-(B26+B27+B28)/B29)</f>
@@ -7197,15 +7249,15 @@
         <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="9">
         <f>B31/B30</f>
@@ -7252,12 +7304,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B25" s="9">
         <v>0.7</v>
@@ -7295,7 +7347,7 @@
     </row>
     <row r="26" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="15">
         <v>0</v>
@@ -7313,7 +7365,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="15">
         <v>0</v>
@@ -7332,7 +7384,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="15">
         <v>8</v>
@@ -7355,7 +7407,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" s="15">
         <v>42</v>
@@ -7407,7 +7459,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" s="19">
         <v>25</v>
@@ -7431,7 +7483,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="19">
         <v>0</v>
@@ -7469,60 +7521,60 @@
       <c r="M32" s="17"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="K33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N33" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" s="7" t="e">
-        <f>B40/B41</f>
+        <f t="shared" ref="B34:L34" si="9">B40/B41</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C34" s="7" t="e">
-        <f t="shared" ref="C34:L34" si="9">C40/C41</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D34" s="7" t="e">
@@ -7562,15 +7614,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B35" s="7">
         <v>0.75</v>
@@ -7606,16 +7658,16 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" s="7" t="e">
-        <f>B43/B42</f>
+        <f t="shared" ref="B36:L36" si="10">B43/B42</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C36" s="7" t="e">
-        <f t="shared" ref="C36:L36" si="10">C43/C42</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D36" s="7" t="e">
@@ -7655,15 +7707,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B37" s="7">
         <v>0.9</v>
@@ -7699,16 +7751,16 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="7" t="e">
-        <f>B44/B42</f>
+        <f t="shared" ref="B38:L38" si="11">B44/B42</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C38" s="7" t="e">
-        <f t="shared" ref="C38:L38" si="11">C44/C42</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D38" s="7" t="e">
@@ -7748,15 +7800,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B39" s="7">
         <v>0.1</v>
@@ -7792,9 +7844,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -7808,92 +7860,94 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="L46" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N46" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="7">
-        <f>B49/B50</f>
+        <v>12</v>
+      </c>
+      <c r="B47" s="22">
         <v>1</v>
       </c>
       <c r="C47" s="7">
-        <f t="shared" ref="C47:L47" si="12">C49/C50</f>
+        <f>C49/C50</f>
         <v>1</v>
       </c>
       <c r="D47" s="7">
+        <f t="shared" ref="D47:M47" si="12">D49/D50</f>
+        <v>1</v>
+      </c>
+      <c r="E47" s="7">
         <f t="shared" si="12"/>
         <v>1</v>
-      </c>
-      <c r="E47" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
       </c>
       <c r="F47" s="7">
         <f t="shared" si="12"/>
@@ -7923,18 +7977,22 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M47" t="s">
-        <v>35</v>
+      <c r="M47" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="O47" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="7">
+        <v>61</v>
+      </c>
+      <c r="B48" s="22">
         <v>0.9</v>
       </c>
       <c r="C48" s="7">
@@ -7967,13 +8025,13 @@
       <c r="L48" s="7">
         <v>0.9</v>
       </c>
+      <c r="M48" s="7">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="15">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C49" s="15">
         <v>25</v>
@@ -7981,7 +8039,9 @@
       <c r="D49" s="15">
         <v>25</v>
       </c>
-      <c r="E49" s="15"/>
+      <c r="E49" s="15">
+        <v>25</v>
+      </c>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
@@ -7989,13 +8049,11 @@
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="15">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C50" s="15">
         <v>25</v>
@@ -8027,9 +8085,12 @@
       <c r="L50" s="15">
         <v>25</v>
       </c>
-      <c r="M50" s="15"/>
+      <c r="M50" s="15">
+        <v>25</v>
+      </c>
+      <c r="N50" s="15"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -8043,61 +8104,79 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N52" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B53" s="2">
         <v>4</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
         <v>5</v>
       </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
-      <c r="M53" t="s">
-        <v>37</v>
-      </c>
-      <c r="N53" t="s">
-        <v>43</v>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B54" s="14">
         <v>5</v>
@@ -8132,8 +8211,17 @@
       <c r="L54" s="14">
         <v>5</v>
       </c>
+      <c r="M54" s="14">
+        <v>5</v>
+      </c>
+      <c r="N54" s="14">
+        <v>5</v>
+      </c>
+      <c r="O54" s="14">
+        <v>5</v>
+      </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
     </row>
   </sheetData>
@@ -8146,8 +8234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B18BC0-52A9-42FD-84FF-BCF023D30810}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="V33" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="AL36" sqref="AL36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DocEsterna/PianoDiQualifica/Images/Metriche processi.xlsx
+++ b/DocEsterna/PianoDiQualifica/Images/Metriche processi.xlsx
@@ -5,20 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\SWE\RepoDocumentazione\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zenma\Desktop\Desktop Marco\UNIPD\Ingegneria del Software\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBFEC42-69DD-450E-99DD-74248DAEAF03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBEC3F7-532A-456F-AF09-A85199441C00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="690" windowWidth="16890" windowHeight="11505" activeTab="1" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Metriche Processi" sheetId="4" r:id="rId1"/>
     <sheet name="Grafici" sheetId="5" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -95,9 +92,6 @@
   </si>
   <si>
     <t>Budget at Completion (Budget totale)</t>
-  </si>
-  <si>
-    <t>var -5% +5%</t>
   </si>
   <si>
     <t>Budget</t>
@@ -276,6 +270,9 @@
   <si>
     <t>TB</t>
   </si>
+  <si>
+    <t>var -2,5% +5%</t>
+  </si>
 </sst>
 </file>
 
@@ -284,7 +281,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="167" formatCode="&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -395,13 +392,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -657,13 +654,13 @@
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12687.25</c:v>
+                  <c:v>13021.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12687.25</c:v>
+                  <c:v>13021.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12687.25</c:v>
+                  <c:v>13021.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -811,7 +808,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14100"/>
-          <c:min val="12500"/>
+          <c:min val="13000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -863,7 +860,7 @@
         <c:crossAx val="1946422384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="500"/>
+        <c:majorUnit val="250"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4281,54 +4278,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Foglio1"/>
-      <sheetName val="Metriche Software"/>
-      <sheetName val="Metriche Documenti"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Incremento I</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Incremento II</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>% Copertura requisiti obbligatori</v>
-          </cell>
-          <cell r="B2">
-            <v>9.0909090909090935</v>
-          </cell>
-          <cell r="C2">
-            <v>18.181818181818176</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>% Copertura requisiti totali</v>
-          </cell>
-          <cell r="B3">
-            <v>6.8181818181818237</v>
-          </cell>
-          <cell r="C3">
-            <v>13.636363636363635</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6346,8 +6295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8B9997-03EC-43C2-97CE-34BB19C7C836}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6362,7 +6311,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="11">
         <v>0.115</v>
@@ -6408,16 +6357,16 @@
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
@@ -6438,10 +6387,10 @@
         <v>6</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>14</v>
@@ -6452,7 +6401,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="24">
         <v>1683</v>
@@ -6478,7 +6427,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="24">
         <f>1673+1119+6210+2605</f>
@@ -6520,16 +6469,16 @@
     </row>
     <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
@@ -6550,10 +6499,10 @@
         <v>6</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>14</v>
@@ -6564,7 +6513,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="23">
         <f t="shared" ref="B7:L7" si="0">B1*B13</f>
@@ -6611,12 +6560,12 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="23">
         <f t="shared" ref="B8:L8" si="1">B1*13355</f>
@@ -6663,7 +6612,7 @@
         <v>13355</v>
       </c>
       <c r="N8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -6696,16 +6645,16 @@
     </row>
     <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>1</v>
@@ -6726,10 +6675,10 @@
         <v>6</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>14</v>
@@ -6776,12 +6725,12 @@
         <v>13355</v>
       </c>
       <c r="N12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="2">
         <f>B3+B4</f>
@@ -6828,63 +6777,63 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="21">
-        <f>13355-(5*13355/100)</f>
-        <v>12687.25</v>
+        <f>13355-(2.5*13355/100)</f>
+        <v>13021.125</v>
       </c>
       <c r="C14" s="21">
-        <f t="shared" ref="C14:L14" si="3">13355-(5*13355/100)</f>
-        <v>12687.25</v>
+        <f t="shared" ref="C14:L14" si="3">13355-(2.5*13355/100)</f>
+        <v>13021.125</v>
       </c>
       <c r="D14" s="21">
         <f t="shared" si="3"/>
-        <v>12687.25</v>
+        <v>13021.125</v>
       </c>
       <c r="E14" s="21">
         <f t="shared" si="3"/>
-        <v>12687.25</v>
+        <v>13021.125</v>
       </c>
       <c r="F14" s="21">
         <f t="shared" si="3"/>
-        <v>12687.25</v>
+        <v>13021.125</v>
       </c>
       <c r="G14" s="21">
         <f t="shared" si="3"/>
-        <v>12687.25</v>
+        <v>13021.125</v>
       </c>
       <c r="H14" s="21">
         <f t="shared" si="3"/>
-        <v>12687.25</v>
+        <v>13021.125</v>
       </c>
       <c r="I14" s="21">
         <f t="shared" si="3"/>
-        <v>12687.25</v>
+        <v>13021.125</v>
       </c>
       <c r="J14" s="21">
         <f t="shared" si="3"/>
-        <v>12687.25</v>
+        <v>13021.125</v>
       </c>
       <c r="K14" s="21">
         <f t="shared" si="3"/>
-        <v>12687.25</v>
+        <v>13021.125</v>
       </c>
       <c r="L14" s="21">
         <f t="shared" si="3"/>
-        <v>12687.25</v>
+        <v>13021.125</v>
       </c>
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="21">
         <f>13355+(5*13355/100)</f>
@@ -6951,16 +6900,16 @@
     </row>
     <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>1</v>
@@ -6981,10 +6930,10 @@
         <v>6</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>14</v>
@@ -6995,7 +6944,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="9">
         <f t="shared" ref="B18:L18" si="5">B7/B8-1</f>
@@ -7050,7 +6999,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="9">
         <f>B8/B3-1</f>
@@ -7105,7 +7054,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="9">
         <v>-0.1</v>
@@ -7158,16 +7107,16 @@
     </row>
     <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>1</v>
@@ -7188,10 +7137,10 @@
         <v>6</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>14</v>
@@ -7249,10 +7198,10 @@
         <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -7304,12 +7253,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="9">
         <v>0.7</v>
@@ -7347,7 +7296,7 @@
     </row>
     <row r="26" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="15">
         <v>0</v>
@@ -7365,7 +7314,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="15">
         <v>0</v>
@@ -7384,7 +7333,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="15">
         <v>8</v>
@@ -7407,7 +7356,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="15">
         <v>42</v>
@@ -7459,7 +7408,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="19">
         <v>25</v>
@@ -7483,7 +7432,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="19">
         <v>0</v>
@@ -7523,13 +7472,13 @@
     </row>
     <row r="33" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>0</v>
@@ -7553,10 +7502,10 @@
         <v>6</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>14</v>
@@ -7614,15 +7563,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35" s="7">
         <v>0.75</v>
@@ -7707,15 +7656,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" s="7">
         <v>0.9</v>
@@ -7800,15 +7749,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" s="7">
         <v>0.1</v>
@@ -7846,7 +7795,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -7862,22 +7811,22 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -7885,19 +7834,19 @@
     </row>
     <row r="46" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="D46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>1</v>
@@ -7918,10 +7867,10 @@
         <v>6</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>14</v>
@@ -7982,15 +7931,15 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" s="22">
         <v>0.9</v>
@@ -8031,7 +7980,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" s="15">
         <v>25</v>
@@ -8053,7 +8002,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" s="15">
         <v>25</v>
@@ -8106,22 +8055,22 @@
     </row>
     <row r="52" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="D52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -8168,15 +8117,15 @@
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54" s="14">
         <v>5</v>
@@ -8234,8 +8183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B18BC0-52A9-42FD-84FF-BCF023D30810}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V33" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="AL36" sqref="AL36"/>
+    <sheetView tabSelected="1" topLeftCell="M22" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="V10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
